--- a/assets/uploads/Lease_Rules.xlsx
+++ b/assets/uploads/Lease_Rules.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roger\OneDrive\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A4E5224-46FD-4695-A5B0-C34A620658B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RESIDUALS" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="97">
   <si>
     <t>Year</t>
   </si>
@@ -28,253 +34,289 @@
     <t>1.5T LX</t>
   </si>
   <si>
-    <t>CV1F1NEW</t>
-  </si>
-  <si>
-    <t>1.5T SPORT</t>
-  </si>
-  <si>
-    <t>CV1F3NEW</t>
-  </si>
-  <si>
-    <t>1.5T SPORT SE</t>
-  </si>
-  <si>
-    <t>CV1F4NENW</t>
-  </si>
-  <si>
-    <t>1.5T EX-L</t>
-  </si>
-  <si>
-    <t>CV1F5NJNW</t>
-  </si>
-  <si>
-    <t>2.0T SPORT</t>
-  </si>
-  <si>
-    <t>CV2F3NJW</t>
-  </si>
-  <si>
-    <t>2.0T TOURING</t>
-  </si>
-  <si>
-    <t>CV2F9NKNW</t>
-  </si>
-  <si>
-    <t>HYBRID</t>
-  </si>
-  <si>
-    <t>CV3F1NEW</t>
-  </si>
-  <si>
     <t>HYBRID SPORT</t>
   </si>
   <si>
-    <t>CV3F2NEW</t>
-  </si>
-  <si>
     <t>HYBRID EX-L</t>
   </si>
   <si>
-    <t>CV3F5NJNW</t>
-  </si>
-  <si>
     <t>HYBRID TOURING</t>
   </si>
   <si>
-    <t>CV3F9NKNW</t>
-  </si>
-  <si>
     <t>LX</t>
   </si>
   <si>
-    <t>FE2F2NEW</t>
-  </si>
-  <si>
     <t>SPORT</t>
   </si>
   <si>
-    <t>FE2F5NEW</t>
-  </si>
-  <si>
     <t>EX</t>
   </si>
   <si>
-    <t>FE1F7NJW</t>
-  </si>
-  <si>
     <t>TOURING</t>
   </si>
   <si>
-    <t>FE1F9NKNW</t>
-  </si>
-  <si>
-    <t>SI / SI HPT</t>
-  </si>
-  <si>
-    <t>FE1E5NJXW / FE1E5NJW</t>
-  </si>
-  <si>
-    <t>FL2H5NEW</t>
-  </si>
-  <si>
-    <t>FL2G8NEW / FL2H8NEW</t>
-  </si>
-  <si>
     <t>EX-L</t>
   </si>
   <si>
-    <t>FL1H7NJNW</t>
-  </si>
-  <si>
     <t>SPORT TOURING</t>
   </si>
   <si>
-    <t>FL1G8NKNW / FL1H8NKNW</t>
-  </si>
-  <si>
-    <t>RW1H2NEW / RW2H2NEW</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>RW1H7NEW / RW2H7NEW</t>
-  </si>
-  <si>
-    <t>RW1H5NJW / RW2H5NJW</t>
-  </si>
-  <si>
-    <t>RW1H8NJNW / RW2H8NJNW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      / RW2H9NKNW</t>
-  </si>
-  <si>
-    <t>AWD HYBRID EX</t>
-  </si>
-  <si>
-    <t>RT6H5NJW</t>
-  </si>
-  <si>
-    <t>AWD HYBRID EX-L</t>
-  </si>
-  <si>
-    <t>RT6H8NJNW</t>
-  </si>
-  <si>
-    <t>AWD HYBRID TOURING</t>
-  </si>
-  <si>
-    <t>RT6H9NKNW</t>
-  </si>
-  <si>
-    <t>RU5H3NEXW / RU6H3NEW</t>
-  </si>
-  <si>
-    <t>RU5H1NEXW / RU6H1NEW</t>
-  </si>
-  <si>
-    <t>RU5H5NJXW / RU6H5NJW</t>
-  </si>
-  <si>
-    <t>RU5H7NJXW / RU6H7NJNW</t>
-  </si>
-  <si>
-    <t>ZE4F5NEW</t>
-  </si>
-  <si>
-    <t>ZE4F9NKNW</t>
-  </si>
-  <si>
-    <t>RL6H2NEW</t>
-  </si>
-  <si>
-    <t>RL6H5NEXW</t>
-  </si>
-  <si>
-    <t>RL6H7NJXW</t>
-  </si>
-  <si>
-    <t>RL6H8NKXW</t>
-  </si>
-  <si>
     <t>ELITE</t>
   </si>
   <si>
-    <t>RL6H9NKXW</t>
-  </si>
-  <si>
-    <t>YF7H5NJNW / YF8H5NJNW</t>
-  </si>
-  <si>
     <t>TRAILSPORT</t>
   </si>
   <si>
-    <t xml:space="preserve">                      / YF8H6NKNW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      / YF8H0NKNW</t>
-  </si>
-  <si>
-    <t>YF5H3NEW / YF6H3NEW</t>
-  </si>
-  <si>
-    <t>YF5H5NJNW / YF6H5NJNW</t>
-  </si>
-  <si>
-    <t>YF5H2NJNW / YF6H2NJNW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      / YF6H8NKNW</t>
-  </si>
-  <si>
-    <t>YF5H9NKNW / YF6H9NKNW</t>
-  </si>
-  <si>
-    <t>TOURING 7P</t>
-  </si>
-  <si>
-    <t>YF5H6NKNW / YF6H6NKNW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      / YF6H0NKNW</t>
-  </si>
-  <si>
-    <t>BLACK EDITION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      / YF6H7NKXW</t>
-  </si>
-  <si>
     <t>AWD SPORT</t>
   </si>
   <si>
-    <t>YK3F1NEW</t>
-  </si>
-  <si>
     <t>AWD RTL</t>
   </si>
   <si>
-    <t>YK3F5NJNW</t>
-  </si>
-  <si>
     <t>AWD RTL-E</t>
   </si>
   <si>
-    <t>YK3F7NKNW</t>
-  </si>
-  <si>
     <t>AWD BLACK</t>
   </si>
   <si>
-    <t>YK3F8NKNW</t>
+    <t>RZ1H3REW / RZ2H3REW</t>
+  </si>
+  <si>
+    <t>SPORT w/o BSI</t>
+  </si>
+  <si>
+    <t>RZ1H5REXW / RZ2H5REXW</t>
+  </si>
+  <si>
+    <t>RZ1H5REW / RZ2H5REW</t>
+  </si>
+  <si>
+    <t>EX-L w/o BSI</t>
+  </si>
+  <si>
+    <t>RZ1H7RJXW / RZ2H7RJXW</t>
+  </si>
+  <si>
+    <t>RZ1H7RJW / RZ2H7RJW</t>
+  </si>
+  <si>
+    <t>CY1F2PEW</t>
+  </si>
+  <si>
+    <t>1.5T EX</t>
+  </si>
+  <si>
+    <t>CY1F3PJW</t>
+  </si>
+  <si>
+    <t>1.5T EX w/o BSI</t>
+  </si>
+  <si>
+    <t>CY1F3PJYW</t>
+  </si>
+  <si>
+    <t>CY2F5PJW</t>
+  </si>
+  <si>
+    <t>HYBRID SPORT w/o BSI</t>
+  </si>
+  <si>
+    <t>CY2F5PJYW</t>
+  </si>
+  <si>
+    <t>CY2F6PJNW</t>
+  </si>
+  <si>
+    <t>HYBRID EX-L w/o BSI</t>
+  </si>
+  <si>
+    <t>CY2F6PJYW</t>
+  </si>
+  <si>
+    <t>HYBRID SPORT-L</t>
+  </si>
+  <si>
+    <t>CY2F7PJXW</t>
+  </si>
+  <si>
+    <t>HYBRID SPORT-L w/o BSI</t>
+  </si>
+  <si>
+    <t>CY2F7PJYW</t>
+  </si>
+  <si>
+    <t>CY2F8PKNW</t>
+  </si>
+  <si>
+    <t>HYBRID TOURING w/o BSI</t>
+  </si>
+  <si>
+    <t>CY2F8PKYW</t>
+  </si>
+  <si>
+    <t>FE2F2PEW</t>
+  </si>
+  <si>
+    <t>FE2F5PEW</t>
+  </si>
+  <si>
+    <t>EX w/o BSI</t>
+  </si>
+  <si>
+    <t>FE1F7PJTW</t>
+  </si>
+  <si>
+    <t>FE1F7PJW</t>
+  </si>
+  <si>
+    <t>FE1F9PKNW</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>FE1E5PJXW</t>
+  </si>
+  <si>
+    <t>FL2H5PEW</t>
+  </si>
+  <si>
+    <t>FL2G8PEW / FL2H8PEW</t>
+  </si>
+  <si>
+    <t>FL1H7PJTW</t>
+  </si>
+  <si>
+    <t>FL1H7PJNW</t>
+  </si>
+  <si>
+    <t>FL1G8PKNW / FL1H8PKNW</t>
+  </si>
+  <si>
+    <t>TYPE R</t>
+  </si>
+  <si>
+    <t>FL5G4PGW</t>
+  </si>
+  <si>
+    <t>RS3H2PEW / RS4H2PEW</t>
+  </si>
+  <si>
+    <t>RS3H4PJW / RS4H4PJW</t>
+  </si>
+  <si>
+    <t>RS3H4PJXW / RS4H4PJXW</t>
+  </si>
+  <si>
+    <t>RS3H7PJW / RS4H7PJW</t>
+  </si>
+  <si>
+    <t>RS3H7PJXW / RS4H7PJXW</t>
+  </si>
+  <si>
+    <t>2WD HYBRID SPORT</t>
+  </si>
+  <si>
+    <t>RS5H5PJW</t>
+  </si>
+  <si>
+    <t>2WD HYBRID SPORT w/o BSI</t>
+  </si>
+  <si>
+    <t>RS5H5PJYW</t>
+  </si>
+  <si>
+    <t>AWD HYBRID SPORT</t>
+  </si>
+  <si>
+    <t>RS6H5PJW</t>
+  </si>
+  <si>
+    <t>AWD HYBRID SPORT w/o BSI</t>
+  </si>
+  <si>
+    <t>RS6H5PJYW</t>
+  </si>
+  <si>
+    <t>AWD HYBRID SPORT TOURING</t>
+  </si>
+  <si>
+    <t>RS6H9PKW</t>
+  </si>
+  <si>
+    <t>RZ1H3PEW / RZ2H3PEW</t>
+  </si>
+  <si>
+    <t>RZ1H5PEW / RZ2H5PEW</t>
+  </si>
+  <si>
+    <t>RZ1H7PJW / RZ2H7PJW</t>
+  </si>
+  <si>
+    <t>RL6H5PEW</t>
+  </si>
+  <si>
+    <t>RL6H6PJNW</t>
+  </si>
+  <si>
+    <t>RL6H7PJNW</t>
+  </si>
+  <si>
+    <t>RL6H8PKNW</t>
+  </si>
+  <si>
+    <t>RL6H9PKNW</t>
+  </si>
+  <si>
+    <t>YF8H5PJNW</t>
+  </si>
+  <si>
+    <t>YF8H6PKNW</t>
+  </si>
+  <si>
+    <t>YF8H0PKNW</t>
+  </si>
+  <si>
+    <t>YG2H2PEW / YG1H2PEW</t>
+  </si>
+  <si>
+    <t>YG2H3PEW / YG1H3PEW</t>
+  </si>
+  <si>
+    <t>YG2H4PENW / YG1H4PENW</t>
+  </si>
+  <si>
+    <t>EX-L 7P</t>
+  </si>
+  <si>
+    <t>YG2H5PENW / YG1H5PENW</t>
+  </si>
+  <si>
+    <t>/ YG1H6PJW</t>
+  </si>
+  <si>
+    <t>YG2H7PKNW / YG1H7PKNW</t>
+  </si>
+  <si>
+    <t>/ YG1H8PKNW</t>
+  </si>
+  <si>
+    <t>YK3F1PEW</t>
+  </si>
+  <si>
+    <t>YK3F5PJNW</t>
+  </si>
+  <si>
+    <t>YK3F7PKNW</t>
+  </si>
+  <si>
+    <t>YK3F8PKNW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -806,6 +848,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -853,7 +898,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -886,9 +931,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -921,6 +983,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1096,10 +1175,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1155,663 +1236,663 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E2">
+        <v>68</v>
+      </c>
+      <c r="F2">
+        <v>66</v>
+      </c>
+      <c r="G2">
+        <v>64</v>
+      </c>
+      <c r="H2">
         <v>62</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>60</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>58</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>56</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>54</v>
       </c>
-      <c r="J2">
-        <v>52</v>
-      </c>
-      <c r="K2">
+      <c r="M2">
         <v>50</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>48</v>
       </c>
-      <c r="M2">
-        <v>47</v>
-      </c>
-      <c r="N2">
+      <c r="O2">
+        <v>46</v>
+      </c>
+      <c r="P2">
         <v>44</v>
-      </c>
-      <c r="O2">
-        <v>42</v>
-      </c>
-      <c r="P2">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E3">
+        <v>69</v>
+      </c>
+      <c r="F3">
+        <v>67</v>
+      </c>
+      <c r="G3">
+        <v>65</v>
+      </c>
+      <c r="H3">
         <v>63</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>61</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>59</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>57</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>55</v>
       </c>
-      <c r="J3">
-        <v>53</v>
-      </c>
-      <c r="K3">
+      <c r="M3">
         <v>51</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>49</v>
       </c>
-      <c r="M3">
+      <c r="O3">
+        <v>47</v>
+      </c>
+      <c r="P3">
         <v>45</v>
-      </c>
-      <c r="N3">
-        <v>42</v>
-      </c>
-      <c r="O3">
-        <v>40</v>
-      </c>
-      <c r="P3">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E4">
+        <v>69</v>
+      </c>
+      <c r="F4">
+        <v>67</v>
+      </c>
+      <c r="G4">
+        <v>65</v>
+      </c>
+      <c r="H4">
         <v>63</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>61</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>59</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>57</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>55</v>
       </c>
-      <c r="J4">
-        <v>53</v>
-      </c>
-      <c r="K4">
+      <c r="M4">
         <v>51</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>49</v>
       </c>
-      <c r="M4">
-        <v>46</v>
-      </c>
-      <c r="N4">
-        <v>43</v>
-      </c>
       <c r="O4">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="P4">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D5">
+        <v>67</v>
+      </c>
+      <c r="E5">
+        <v>66</v>
+      </c>
+      <c r="F5">
+        <v>64</v>
+      </c>
+      <c r="G5">
         <v>62</v>
       </c>
-      <c r="E5">
-        <v>61</v>
-      </c>
-      <c r="F5">
-        <v>59</v>
-      </c>
-      <c r="G5">
-        <v>57</v>
-      </c>
       <c r="H5">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I5">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J5">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L5">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M5">
+        <v>48</v>
+      </c>
+      <c r="N5">
+        <v>46</v>
+      </c>
+      <c r="O5">
         <v>44</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>42</v>
-      </c>
-      <c r="O5">
-        <v>40</v>
-      </c>
-      <c r="P5">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E6">
+        <v>66</v>
+      </c>
+      <c r="F6">
+        <v>64</v>
+      </c>
+      <c r="G6">
         <v>62</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>60</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>58</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>56</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>54</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>52</v>
       </c>
-      <c r="K6">
-        <v>50</v>
-      </c>
-      <c r="L6">
+      <c r="M6">
         <v>48</v>
       </c>
-      <c r="M6">
+      <c r="N6">
+        <v>46</v>
+      </c>
+      <c r="O6">
         <v>44</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>42</v>
-      </c>
-      <c r="O6">
-        <v>40</v>
-      </c>
-      <c r="P6">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E7">
+        <v>65</v>
+      </c>
+      <c r="F7">
+        <v>63</v>
+      </c>
+      <c r="G7">
         <v>61</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>59</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>57</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>55</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>53</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>51</v>
       </c>
-      <c r="K7">
-        <v>49</v>
-      </c>
-      <c r="L7">
-        <v>47</v>
-      </c>
       <c r="M7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N7">
         <v>41</v>
       </c>
       <c r="O7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P7">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E8">
+        <v>65</v>
+      </c>
+      <c r="F8">
+        <v>63</v>
+      </c>
+      <c r="G8">
         <v>61</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>59</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>57</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>55</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>53</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>51</v>
       </c>
-      <c r="K8">
-        <v>49</v>
-      </c>
-      <c r="L8">
-        <v>47</v>
-      </c>
       <c r="M8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N8">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O8">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P8">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D9">
+        <v>66</v>
+      </c>
+      <c r="E9">
+        <v>65</v>
+      </c>
+      <c r="F9">
         <v>63</v>
       </c>
-      <c r="E9">
-        <v>62</v>
-      </c>
-      <c r="F9">
-        <v>60</v>
-      </c>
       <c r="G9">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H9">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N9">
         <v>41</v>
       </c>
       <c r="O9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P9">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D10">
+        <v>66</v>
+      </c>
+      <c r="E10">
+        <v>65</v>
+      </c>
+      <c r="F10">
+        <v>63</v>
+      </c>
+      <c r="G10">
         <v>61</v>
       </c>
-      <c r="E10">
-        <v>60</v>
-      </c>
-      <c r="F10">
-        <v>58</v>
-      </c>
-      <c r="G10">
-        <v>56</v>
-      </c>
       <c r="H10">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I10">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J10">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K10">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N10">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O10">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P10">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D11">
+        <v>66</v>
+      </c>
+      <c r="E11">
+        <v>65</v>
+      </c>
+      <c r="F11">
+        <v>63</v>
+      </c>
+      <c r="G11">
         <v>61</v>
       </c>
-      <c r="E11">
-        <v>60</v>
-      </c>
-      <c r="F11">
-        <v>58</v>
-      </c>
-      <c r="G11">
-        <v>56</v>
-      </c>
       <c r="H11">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I11">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J11">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K11">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N11">
         <v>40</v>
       </c>
       <c r="O11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P11">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E12">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F12">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G12">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H12">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I12">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J12">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K12">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L12">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M12">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N12">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O12">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="P12">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E13">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F13">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G13">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H13">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I13">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J13">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K13">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L13">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M13">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N13">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O13">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="P13">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D14">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E14">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F14">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G14">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H14">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I14">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J14">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K14">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L14">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M14">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="N14">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="O14">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="P14">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>66</v>
@@ -1841,163 +1922,163 @@
         <v>51</v>
       </c>
       <c r="M15">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N15">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="O15">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="P15">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <v>64</v>
+      </c>
+      <c r="E16">
+        <v>63</v>
+      </c>
+      <c r="F16">
+        <v>61</v>
+      </c>
+      <c r="G16">
+        <v>59</v>
+      </c>
+      <c r="H16">
+        <v>57</v>
+      </c>
+      <c r="I16">
+        <v>55</v>
+      </c>
+      <c r="J16">
+        <v>53</v>
+      </c>
+      <c r="K16">
+        <v>51</v>
+      </c>
+      <c r="L16">
+        <v>49</v>
+      </c>
+      <c r="M16">
+        <v>42</v>
+      </c>
+      <c r="N16">
+        <v>39</v>
+      </c>
+      <c r="O16">
+        <v>36</v>
+      </c>
+      <c r="P16">
         <v>32</v>
-      </c>
-      <c r="D16">
-        <v>71</v>
-      </c>
-      <c r="E16">
-        <v>70</v>
-      </c>
-      <c r="F16">
-        <v>68</v>
-      </c>
-      <c r="G16">
-        <v>66</v>
-      </c>
-      <c r="H16">
-        <v>64</v>
-      </c>
-      <c r="I16">
-        <v>62</v>
-      </c>
-      <c r="J16">
-        <v>60</v>
-      </c>
-      <c r="K16">
-        <v>58</v>
-      </c>
-      <c r="L16">
-        <v>56</v>
-      </c>
-      <c r="M16">
-        <v>52</v>
-      </c>
-      <c r="N16">
-        <v>50</v>
-      </c>
-      <c r="O16">
-        <v>48</v>
-      </c>
-      <c r="P16">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D17">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E17">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F17">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G17">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H17">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I17">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J17">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L17">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M17">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N17">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="O17">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="P17">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D18">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E18">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F18">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G18">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H18">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I18">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J18">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K18">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L18">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M18">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N18">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O18">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P18">
         <v>43</v>
@@ -2005,19 +2086,19 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D19">
+        <v>69</v>
+      </c>
+      <c r="E19">
         <v>68</v>
-      </c>
-      <c r="E19">
-        <v>67</v>
       </c>
       <c r="F19">
         <v>66</v>
@@ -2041,227 +2122,227 @@
         <v>54</v>
       </c>
       <c r="M19">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N19">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O19">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="P19">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D20">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E20">
+        <v>67</v>
+      </c>
+      <c r="F20">
         <v>65</v>
       </c>
-      <c r="F20">
-        <v>64</v>
-      </c>
       <c r="G20">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H20">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I20">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J20">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K20">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L20">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M20">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N20">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O20">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P20">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D21">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E21">
+        <v>67</v>
+      </c>
+      <c r="F21">
         <v>65</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>63</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>61</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>59</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>57</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>55</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>53</v>
       </c>
-      <c r="L21">
-        <v>51</v>
-      </c>
       <c r="M21">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N21">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O21">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P21">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22">
+        <v>65</v>
+      </c>
+      <c r="E22">
+        <v>64</v>
+      </c>
+      <c r="F22">
+        <v>62</v>
+      </c>
+      <c r="G22">
+        <v>60</v>
+      </c>
+      <c r="H22">
+        <v>58</v>
+      </c>
+      <c r="I22">
+        <v>56</v>
+      </c>
+      <c r="J22">
+        <v>54</v>
+      </c>
+      <c r="K22">
+        <v>52</v>
+      </c>
+      <c r="L22">
+        <v>50</v>
+      </c>
+      <c r="M22">
+        <v>45</v>
+      </c>
+      <c r="N22">
+        <v>43</v>
+      </c>
+      <c r="O22">
         <v>41</v>
       </c>
-      <c r="D22">
-        <v>67</v>
-      </c>
-      <c r="E22">
-        <v>66</v>
-      </c>
-      <c r="F22">
-        <v>64</v>
-      </c>
-      <c r="G22">
-        <v>62</v>
-      </c>
-      <c r="H22">
-        <v>60</v>
-      </c>
-      <c r="I22">
-        <v>58</v>
-      </c>
-      <c r="J22">
-        <v>56</v>
-      </c>
-      <c r="K22">
-        <v>54</v>
-      </c>
-      <c r="L22">
-        <v>52</v>
-      </c>
-      <c r="M22">
-        <v>49</v>
-      </c>
-      <c r="N22">
-        <v>47</v>
-      </c>
-      <c r="O22">
-        <v>45</v>
-      </c>
       <c r="P22">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D23">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E23">
+        <v>70</v>
+      </c>
+      <c r="F23">
+        <v>68</v>
+      </c>
+      <c r="G23">
         <v>66</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>64</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>62</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>60</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>58</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>56</v>
       </c>
-      <c r="K23">
-        <v>54</v>
-      </c>
-      <c r="L23">
-        <v>52</v>
-      </c>
       <c r="M23">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N23">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O23">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P23">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D24">
         <v>67</v>
@@ -2270,25 +2351,25 @@
         <v>66</v>
       </c>
       <c r="F24">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G24">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H24">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J24">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K24">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L24">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M24">
         <v>49</v>
@@ -2305,119 +2386,119 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25">
+        <v>69</v>
+      </c>
+      <c r="E25">
+        <v>68</v>
+      </c>
+      <c r="F25">
+        <v>67</v>
+      </c>
+      <c r="G25">
+        <v>65</v>
+      </c>
+      <c r="H25">
+        <v>63</v>
+      </c>
+      <c r="I25">
+        <v>61</v>
+      </c>
+      <c r="J25">
+        <v>59</v>
+      </c>
+      <c r="K25">
+        <v>57</v>
+      </c>
+      <c r="L25">
+        <v>55</v>
+      </c>
+      <c r="M25">
+        <v>47</v>
+      </c>
+      <c r="N25">
         <v>44</v>
       </c>
-      <c r="D25">
-        <v>67</v>
-      </c>
-      <c r="E25">
-        <v>66</v>
-      </c>
-      <c r="F25">
-        <v>64</v>
-      </c>
-      <c r="G25">
-        <v>62</v>
-      </c>
-      <c r="H25">
-        <v>60</v>
-      </c>
-      <c r="I25">
-        <v>58</v>
-      </c>
-      <c r="J25">
-        <v>56</v>
-      </c>
-      <c r="K25">
-        <v>54</v>
-      </c>
-      <c r="L25">
-        <v>52</v>
-      </c>
-      <c r="M25">
-        <v>48</v>
-      </c>
-      <c r="N25">
-        <v>46</v>
-      </c>
       <c r="O25">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P25">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26">
+        <v>67</v>
+      </c>
+      <c r="E26">
+        <v>66</v>
+      </c>
+      <c r="F26">
+        <v>65</v>
+      </c>
+      <c r="G26">
+        <v>63</v>
+      </c>
+      <c r="H26">
+        <v>61</v>
+      </c>
+      <c r="I26">
+        <v>59</v>
+      </c>
+      <c r="J26">
+        <v>57</v>
+      </c>
+      <c r="K26">
+        <v>55</v>
+      </c>
+      <c r="L26">
+        <v>53</v>
+      </c>
+      <c r="M26">
+        <v>49</v>
+      </c>
+      <c r="N26">
+        <v>47</v>
+      </c>
+      <c r="O26">
         <v>45</v>
       </c>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26">
-        <v>69</v>
-      </c>
-      <c r="E26">
-        <v>68</v>
-      </c>
-      <c r="F26">
-        <v>66</v>
-      </c>
-      <c r="G26">
-        <v>64</v>
-      </c>
-      <c r="H26">
-        <v>62</v>
-      </c>
-      <c r="I26">
-        <v>60</v>
-      </c>
-      <c r="J26">
-        <v>58</v>
-      </c>
-      <c r="K26">
-        <v>56</v>
-      </c>
-      <c r="L26">
-        <v>54</v>
-      </c>
-      <c r="M26">
-        <v>52</v>
-      </c>
-      <c r="N26">
-        <v>50</v>
-      </c>
-      <c r="O26">
-        <v>48</v>
-      </c>
       <c r="P26">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D27">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27">
         <v>65</v>
@@ -2441,127 +2522,127 @@
         <v>53</v>
       </c>
       <c r="M27">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N27">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O27">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P27">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D28">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E28">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F28">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G28">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H28">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I28">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J28">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K28">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L28">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M28">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N28">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O28">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P28">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D29">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E29">
+        <v>74</v>
+      </c>
+      <c r="F29">
+        <v>73</v>
+      </c>
+      <c r="G29">
+        <v>71</v>
+      </c>
+      <c r="H29">
+        <v>69</v>
+      </c>
+      <c r="I29">
+        <v>67</v>
+      </c>
+      <c r="J29">
         <v>65</v>
       </c>
-      <c r="F29">
+      <c r="K29">
         <v>63</v>
       </c>
-      <c r="G29">
+      <c r="L29">
         <v>61</v>
       </c>
-      <c r="H29">
-        <v>59</v>
-      </c>
-      <c r="I29">
-        <v>57</v>
-      </c>
-      <c r="J29">
-        <v>55</v>
-      </c>
-      <c r="K29">
+      <c r="M29">
         <v>53</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>50</v>
       </c>
-      <c r="M29">
-        <v>47</v>
-      </c>
-      <c r="N29">
+      <c r="O29">
+        <v>48</v>
+      </c>
+      <c r="P29">
         <v>45</v>
-      </c>
-      <c r="O29">
-        <v>44</v>
-      </c>
-      <c r="P29">
-        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D30">
         <v>67</v>
@@ -2588,13 +2669,13 @@
         <v>54</v>
       </c>
       <c r="L30">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M30">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N30">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O30">
         <v>43</v>
@@ -2605,90 +2686,90 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31">
+        <v>68</v>
+      </c>
+      <c r="E31">
+        <v>67</v>
+      </c>
+      <c r="F31">
+        <v>65</v>
+      </c>
+      <c r="G31">
+        <v>63</v>
+      </c>
+      <c r="H31">
+        <v>61</v>
+      </c>
+      <c r="I31">
+        <v>59</v>
+      </c>
+      <c r="J31">
+        <v>57</v>
+      </c>
+      <c r="K31">
+        <v>55</v>
+      </c>
+      <c r="L31">
         <v>53</v>
       </c>
-      <c r="D31">
-        <v>65</v>
-      </c>
-      <c r="E31">
-        <v>64</v>
-      </c>
-      <c r="F31">
-        <v>62</v>
-      </c>
-      <c r="G31">
-        <v>60</v>
-      </c>
-      <c r="H31">
-        <v>58</v>
-      </c>
-      <c r="I31">
-        <v>56</v>
-      </c>
-      <c r="J31">
-        <v>54</v>
-      </c>
-      <c r="K31">
-        <v>52</v>
-      </c>
-      <c r="L31">
-        <v>49</v>
-      </c>
       <c r="M31">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N31">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O31">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P31">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D32">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E32">
+        <v>67</v>
+      </c>
+      <c r="F32">
+        <v>65</v>
+      </c>
+      <c r="G32">
         <v>63</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>61</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>59</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>57</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>55</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>53</v>
-      </c>
-      <c r="K32">
-        <v>51</v>
-      </c>
-      <c r="L32">
-        <v>48</v>
       </c>
       <c r="M32">
         <v>47</v>
@@ -2697,157 +2778,157 @@
         <v>45</v>
       </c>
       <c r="O32">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P32">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33">
+        <v>68</v>
+      </c>
+      <c r="E33">
+        <v>67</v>
+      </c>
+      <c r="F33">
+        <v>65</v>
+      </c>
+      <c r="G33">
+        <v>63</v>
+      </c>
+      <c r="H33">
+        <v>61</v>
+      </c>
+      <c r="I33">
+        <v>59</v>
+      </c>
+      <c r="J33">
+        <v>57</v>
+      </c>
+      <c r="K33">
         <v>55</v>
       </c>
-      <c r="D33">
-        <v>59</v>
-      </c>
-      <c r="E33">
-        <v>58</v>
-      </c>
-      <c r="F33">
-        <v>57</v>
-      </c>
-      <c r="G33">
-        <v>55</v>
-      </c>
-      <c r="H33">
+      <c r="L33">
         <v>53</v>
       </c>
-      <c r="I33">
-        <v>51</v>
-      </c>
-      <c r="J33">
-        <v>49</v>
-      </c>
-      <c r="K33">
+      <c r="M33">
         <v>47</v>
       </c>
-      <c r="L33">
+      <c r="N33">
         <v>45</v>
       </c>
-      <c r="M33">
+      <c r="O33">
+        <v>43</v>
+      </c>
+      <c r="P33">
         <v>41</v>
-      </c>
-      <c r="N33">
-        <v>39</v>
-      </c>
-      <c r="O33">
-        <v>37</v>
-      </c>
-      <c r="P33">
-        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D34">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E34">
+        <v>67</v>
+      </c>
+      <c r="F34">
+        <v>65</v>
+      </c>
+      <c r="G34">
+        <v>63</v>
+      </c>
+      <c r="H34">
+        <v>61</v>
+      </c>
+      <c r="I34">
+        <v>59</v>
+      </c>
+      <c r="J34">
         <v>57</v>
       </c>
-      <c r="F34">
-        <v>56</v>
-      </c>
-      <c r="G34">
-        <v>54</v>
-      </c>
-      <c r="H34">
-        <v>52</v>
-      </c>
-      <c r="I34">
-        <v>50</v>
-      </c>
-      <c r="J34">
-        <v>48</v>
-      </c>
       <c r="K34">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="L34">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M34">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="N34">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="O34">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="P34">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35">
+        <v>70</v>
+      </c>
+      <c r="E35">
+        <v>69</v>
+      </c>
+      <c r="F35">
+        <v>67</v>
+      </c>
+      <c r="G35">
+        <v>65</v>
+      </c>
+      <c r="H35">
+        <v>63</v>
+      </c>
+      <c r="I35">
+        <v>61</v>
+      </c>
+      <c r="J35">
+        <v>59</v>
+      </c>
+      <c r="K35">
         <v>57</v>
       </c>
-      <c r="D35">
-        <v>62</v>
-      </c>
-      <c r="E35">
-        <v>61</v>
-      </c>
-      <c r="F35">
-        <v>59</v>
-      </c>
-      <c r="G35">
-        <v>57</v>
-      </c>
-      <c r="H35">
+      <c r="L35">
         <v>55</v>
       </c>
-      <c r="I35">
-        <v>53</v>
-      </c>
-      <c r="J35">
-        <v>51</v>
-      </c>
-      <c r="K35">
+      <c r="M35">
         <v>49</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <v>47</v>
       </c>
-      <c r="M35">
-        <v>46</v>
-      </c>
-      <c r="N35">
+      <c r="O35">
         <v>45</v>
-      </c>
-      <c r="O35">
-        <v>44</v>
       </c>
       <c r="P35">
         <v>43</v>
@@ -2855,140 +2936,140 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D36">
+        <v>70</v>
+      </c>
+      <c r="E36">
+        <v>69</v>
+      </c>
+      <c r="F36">
+        <v>67</v>
+      </c>
+      <c r="G36">
+        <v>65</v>
+      </c>
+      <c r="H36">
         <v>63</v>
       </c>
-      <c r="E36">
-        <v>62</v>
-      </c>
-      <c r="F36">
-        <v>60</v>
-      </c>
-      <c r="G36">
-        <v>58</v>
-      </c>
-      <c r="H36">
-        <v>56</v>
-      </c>
       <c r="I36">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J36">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K36">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="L36">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M36">
+        <v>49</v>
+      </c>
+      <c r="N36">
         <v>47</v>
-      </c>
-      <c r="N36">
-        <v>46</v>
       </c>
       <c r="O36">
         <v>45</v>
       </c>
       <c r="P36">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37">
+        <v>70</v>
+      </c>
+      <c r="E37">
+        <v>69</v>
+      </c>
+      <c r="F37">
+        <v>67</v>
+      </c>
+      <c r="G37">
+        <v>65</v>
+      </c>
+      <c r="H37">
+        <v>63</v>
+      </c>
+      <c r="I37">
+        <v>61</v>
+      </c>
+      <c r="J37">
         <v>59</v>
       </c>
-      <c r="D37">
-        <v>64</v>
-      </c>
-      <c r="E37">
-        <v>63</v>
-      </c>
-      <c r="F37">
-        <v>61</v>
-      </c>
-      <c r="G37">
-        <v>59</v>
-      </c>
-      <c r="H37">
+      <c r="K37">
         <v>57</v>
       </c>
-      <c r="I37">
+      <c r="L37">
         <v>55</v>
-      </c>
-      <c r="J37">
-        <v>53</v>
-      </c>
-      <c r="K37">
-        <v>51</v>
-      </c>
-      <c r="L37">
-        <v>49</v>
       </c>
       <c r="M37">
         <v>48</v>
       </c>
       <c r="N37">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O37">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P37">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D38">
+        <v>70</v>
+      </c>
+      <c r="E38">
+        <v>69</v>
+      </c>
+      <c r="F38">
+        <v>67</v>
+      </c>
+      <c r="G38">
         <v>65</v>
       </c>
-      <c r="E38">
-        <v>64</v>
-      </c>
-      <c r="F38">
-        <v>62</v>
-      </c>
-      <c r="G38">
-        <v>60</v>
-      </c>
       <c r="H38">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I38">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J38">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L38">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M38">
         <v>48</v>
@@ -3005,40 +3086,40 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39">
+        <v>69</v>
+      </c>
+      <c r="E39">
+        <v>68</v>
+      </c>
+      <c r="F39">
+        <v>66</v>
+      </c>
+      <c r="G39">
+        <v>64</v>
+      </c>
+      <c r="H39">
         <v>62</v>
       </c>
-      <c r="D39">
-        <v>62</v>
-      </c>
-      <c r="E39">
-        <v>61</v>
-      </c>
-      <c r="F39">
-        <v>59</v>
-      </c>
-      <c r="G39">
-        <v>57</v>
-      </c>
-      <c r="H39">
-        <v>55</v>
-      </c>
       <c r="I39">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J39">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L39">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="M39">
         <v>46</v>
@@ -3055,37 +3136,37 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40">
+        <v>68</v>
+      </c>
+      <c r="E40">
+        <v>67</v>
+      </c>
+      <c r="F40">
+        <v>65</v>
+      </c>
+      <c r="G40">
         <v>63</v>
       </c>
-      <c r="D40">
-        <v>69</v>
-      </c>
-      <c r="E40">
-        <v>68</v>
-      </c>
-      <c r="F40">
-        <v>66</v>
-      </c>
-      <c r="G40">
-        <v>64</v>
-      </c>
       <c r="H40">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I40">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J40">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L40">
         <v>53</v>
@@ -3094,24 +3175,24 @@
         <v>49</v>
       </c>
       <c r="N40">
+        <v>48</v>
+      </c>
+      <c r="O40">
         <v>47</v>
       </c>
-      <c r="O40">
-        <v>45</v>
-      </c>
       <c r="P40">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D41">
         <v>69</v>
@@ -3138,30 +3219,30 @@
         <v>56</v>
       </c>
       <c r="L41">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M41">
         <v>49</v>
       </c>
       <c r="N41">
+        <v>48</v>
+      </c>
+      <c r="O41">
         <v>47</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>45</v>
-      </c>
-      <c r="P41">
-        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D42">
         <v>66</v>
@@ -3188,216 +3269,216 @@
         <v>53</v>
       </c>
       <c r="L42">
+        <v>51</v>
+      </c>
+      <c r="M42">
         <v>50</v>
       </c>
-      <c r="M42">
-        <v>46</v>
-      </c>
       <c r="N42">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O42">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P42">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D43">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E43">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F43">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G43">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H43">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I43">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J43">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L43">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M43">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N43">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O43">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P43">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D44">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E44">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F44">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G44">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H44">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I44">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J44">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K44">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L44">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M44">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N44">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O44">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P44">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45">
+        <v>64</v>
+      </c>
+      <c r="E45">
+        <v>63</v>
+      </c>
+      <c r="F45">
+        <v>61</v>
+      </c>
+      <c r="G45">
+        <v>59</v>
+      </c>
+      <c r="H45">
+        <v>57</v>
+      </c>
+      <c r="I45">
+        <v>55</v>
+      </c>
+      <c r="J45">
+        <v>53</v>
+      </c>
+      <c r="K45">
+        <v>51</v>
+      </c>
+      <c r="L45">
+        <v>49</v>
+      </c>
+      <c r="M45">
+        <v>44</v>
+      </c>
+      <c r="N45">
+        <v>42</v>
+      </c>
+      <c r="O45">
         <v>40</v>
       </c>
-      <c r="C45" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45">
-        <v>66</v>
-      </c>
-      <c r="E45">
-        <v>65</v>
-      </c>
-      <c r="F45">
-        <v>63</v>
-      </c>
-      <c r="G45">
-        <v>61</v>
-      </c>
-      <c r="H45">
-        <v>59</v>
-      </c>
-      <c r="I45">
-        <v>57</v>
-      </c>
-      <c r="J45">
-        <v>55</v>
-      </c>
-      <c r="K45">
-        <v>53</v>
-      </c>
-      <c r="L45">
-        <v>50</v>
-      </c>
-      <c r="M45">
-        <v>48</v>
-      </c>
-      <c r="N45">
-        <v>45</v>
-      </c>
-      <c r="O45">
-        <v>42</v>
-      </c>
       <c r="P45">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D46">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E46">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F46">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G46">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H46">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I46">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J46">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K46">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L46">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M46">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N46">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O46">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P46">
         <v>37</v>
@@ -3405,402 +3486,752 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D47">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E47">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F47">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G47">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H47">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I47">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J47">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K47">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L47">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M47">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N47">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O47">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P47">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D48">
+        <v>67</v>
+      </c>
+      <c r="E48">
         <v>66</v>
       </c>
-      <c r="E48">
-        <v>65</v>
-      </c>
       <c r="F48">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G48">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H48">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I48">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J48">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K48">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L48">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M48">
+        <v>48</v>
+      </c>
+      <c r="N48">
         <v>45</v>
       </c>
-      <c r="N48">
-        <v>42</v>
-      </c>
       <c r="O48">
+        <v>43</v>
+      </c>
+      <c r="P48">
         <v>40</v>
-      </c>
-      <c r="P48">
-        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D49">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E49">
+        <v>66</v>
+      </c>
+      <c r="F49">
         <v>64</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>62</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>60</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>58</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>56</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>54</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>52</v>
       </c>
-      <c r="L49">
-        <v>49</v>
-      </c>
       <c r="M49">
+        <v>46</v>
+      </c>
+      <c r="N49">
+        <v>44</v>
+      </c>
+      <c r="O49">
         <v>42</v>
       </c>
-      <c r="N49">
-        <v>40</v>
-      </c>
-      <c r="O49">
-        <v>38</v>
-      </c>
       <c r="P49">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D50">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E50">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F50">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G50">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H50">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I50">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J50">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K50">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L50">
         <v>49</v>
       </c>
       <c r="M50">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N50">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O50">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P50">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D51">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F51">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G51">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H51">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I51">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J51">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K51">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L51">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M51">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N51">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O51">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P51">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D52">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E52">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F52">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G52">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H52">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I52">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J52">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K52">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L52">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M52">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N52">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O52">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P52">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D53">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E53">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F53">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G53">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H53">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I53">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J53">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K53">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L53">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M53">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N53">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O53">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P53">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D54">
+        <v>69</v>
+      </c>
+      <c r="E54">
+        <v>68</v>
+      </c>
+      <c r="F54">
+        <v>66</v>
+      </c>
+      <c r="G54">
+        <v>64</v>
+      </c>
+      <c r="H54">
+        <v>62</v>
+      </c>
+      <c r="I54">
+        <v>60</v>
+      </c>
+      <c r="J54">
+        <v>58</v>
+      </c>
+      <c r="K54">
+        <v>56</v>
+      </c>
+      <c r="L54">
+        <v>54</v>
+      </c>
+      <c r="M54">
+        <v>48</v>
+      </c>
+      <c r="N54">
+        <v>45</v>
+      </c>
+      <c r="O54">
+        <v>42</v>
+      </c>
+      <c r="P54">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2023</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55">
+        <v>70</v>
+      </c>
+      <c r="E55">
+        <v>69</v>
+      </c>
+      <c r="F55">
+        <v>67</v>
+      </c>
+      <c r="G55">
+        <v>65</v>
+      </c>
+      <c r="H55">
+        <v>63</v>
+      </c>
+      <c r="I55">
+        <v>61</v>
+      </c>
+      <c r="J55">
+        <v>59</v>
+      </c>
+      <c r="K55">
+        <v>57</v>
+      </c>
+      <c r="L55">
+        <v>55</v>
+      </c>
+      <c r="M55">
+        <v>46</v>
+      </c>
+      <c r="N55">
+        <v>43</v>
+      </c>
+      <c r="O55">
+        <v>40</v>
+      </c>
+      <c r="P55">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2023</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56">
+        <v>68</v>
+      </c>
+      <c r="E56">
+        <v>67</v>
+      </c>
+      <c r="F56">
+        <v>65</v>
+      </c>
+      <c r="G56">
+        <v>63</v>
+      </c>
+      <c r="H56">
+        <v>61</v>
+      </c>
+      <c r="I56">
+        <v>59</v>
+      </c>
+      <c r="J56">
+        <v>57</v>
+      </c>
+      <c r="K56">
+        <v>55</v>
+      </c>
+      <c r="L56">
+        <v>53</v>
+      </c>
+      <c r="M56">
+        <v>47</v>
+      </c>
+      <c r="N56">
+        <v>44</v>
+      </c>
+      <c r="O56">
+        <v>41</v>
+      </c>
+      <c r="P56">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2023</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57">
+        <v>67</v>
+      </c>
+      <c r="E57">
+        <v>66</v>
+      </c>
+      <c r="F57">
+        <v>64</v>
+      </c>
+      <c r="G57">
+        <v>62</v>
+      </c>
+      <c r="H57">
+        <v>60</v>
+      </c>
+      <c r="I57">
+        <v>58</v>
+      </c>
+      <c r="J57">
+        <v>56</v>
+      </c>
+      <c r="K57">
+        <v>54</v>
+      </c>
+      <c r="L57">
+        <v>52</v>
+      </c>
+      <c r="M57">
+        <v>45</v>
+      </c>
+      <c r="N57">
+        <v>42</v>
+      </c>
+      <c r="O57">
+        <v>39</v>
+      </c>
+      <c r="P57">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2023</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58">
         <v>71</v>
       </c>
-      <c r="E54">
+      <c r="E58">
         <v>70</v>
       </c>
-      <c r="F54">
+      <c r="F58">
         <v>68</v>
       </c>
-      <c r="G54">
+      <c r="G58">
         <v>66</v>
       </c>
-      <c r="H54">
+      <c r="H58">
         <v>64</v>
       </c>
-      <c r="I54">
+      <c r="I58">
         <v>62</v>
       </c>
-      <c r="J54">
+      <c r="J58">
         <v>60</v>
       </c>
-      <c r="K54">
+      <c r="K58">
         <v>58</v>
       </c>
-      <c r="L54">
+      <c r="L58">
         <v>56</v>
       </c>
-      <c r="M54">
-        <v>49</v>
-      </c>
-      <c r="N54">
-        <v>46</v>
-      </c>
-      <c r="O54">
+      <c r="M58">
+        <v>45</v>
+      </c>
+      <c r="N58">
+        <v>42</v>
+      </c>
+      <c r="O58">
+        <v>39</v>
+      </c>
+      <c r="P58">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2023</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59">
+        <v>70</v>
+      </c>
+      <c r="E59">
+        <v>69</v>
+      </c>
+      <c r="F59">
+        <v>67</v>
+      </c>
+      <c r="G59">
+        <v>65</v>
+      </c>
+      <c r="H59">
+        <v>63</v>
+      </c>
+      <c r="I59">
+        <v>61</v>
+      </c>
+      <c r="J59">
+        <v>59</v>
+      </c>
+      <c r="K59">
+        <v>57</v>
+      </c>
+      <c r="L59">
+        <v>55</v>
+      </c>
+      <c r="M59">
         <v>44</v>
       </c>
-      <c r="P54">
+      <c r="N59">
         <v>41</v>
+      </c>
+      <c r="O59">
+        <v>39</v>
+      </c>
+      <c r="P59">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2023</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60">
+        <v>72</v>
+      </c>
+      <c r="E60">
+        <v>71</v>
+      </c>
+      <c r="F60">
+        <v>69</v>
+      </c>
+      <c r="G60">
+        <v>67</v>
+      </c>
+      <c r="H60">
+        <v>65</v>
+      </c>
+      <c r="I60">
+        <v>63</v>
+      </c>
+      <c r="J60">
+        <v>61</v>
+      </c>
+      <c r="K60">
+        <v>59</v>
+      </c>
+      <c r="L60">
+        <v>57</v>
+      </c>
+      <c r="M60">
+        <v>43</v>
+      </c>
+      <c r="N60">
+        <v>40</v>
+      </c>
+      <c r="O60">
+        <v>38</v>
+      </c>
+      <c r="P60">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2023</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61">
+        <v>71</v>
+      </c>
+      <c r="E61">
+        <v>70</v>
+      </c>
+      <c r="F61">
+        <v>68</v>
+      </c>
+      <c r="G61">
+        <v>66</v>
+      </c>
+      <c r="H61">
+        <v>64</v>
+      </c>
+      <c r="I61">
+        <v>62</v>
+      </c>
+      <c r="J61">
+        <v>60</v>
+      </c>
+      <c r="K61">
+        <v>58</v>
+      </c>
+      <c r="L61">
+        <v>56</v>
+      </c>
+      <c r="M61">
+        <v>42</v>
+      </c>
+      <c r="N61">
+        <v>40</v>
+      </c>
+      <c r="O61">
+        <v>38</v>
+      </c>
+      <c r="P61">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/assets/uploads/Lease_Rules.xlsx
+++ b/assets/uploads/Lease_Rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roger\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7677d5558d5ec03f/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A4E5224-46FD-4695-A5B0-C34A620658B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0551FF55-1DF5-4354-9151-1B7F6BE11432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RESIDUALS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="116">
   <si>
     <t>Year</t>
   </si>
@@ -67,18 +67,219 @@
     <t>TRAILSPORT</t>
   </si>
   <si>
+    <t>BLACK EDITION</t>
+  </si>
+  <si>
     <t>AWD SPORT</t>
   </si>
   <si>
     <t>AWD RTL</t>
   </si>
   <si>
-    <t>AWD RTL-E</t>
-  </si>
-  <si>
     <t>AWD BLACK</t>
   </si>
   <si>
+    <t>FE2F2SEW</t>
+  </si>
+  <si>
+    <t>FE2F5SEW</t>
+  </si>
+  <si>
+    <t>FE4F8SJW</t>
+  </si>
+  <si>
+    <t>HYBRID SPORT TOURING</t>
+  </si>
+  <si>
+    <t>FE4F8SKNW</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>FE1E5SKXW</t>
+  </si>
+  <si>
+    <t>SI HPT</t>
+  </si>
+  <si>
+    <t>FE1E5SKW</t>
+  </si>
+  <si>
+    <t>FL2H8SEW</t>
+  </si>
+  <si>
+    <t>FL4H8SJW</t>
+  </si>
+  <si>
+    <t>FL4H9SKNW</t>
+  </si>
+  <si>
+    <t>TYPE R</t>
+  </si>
+  <si>
+    <t>FL5G4SGW</t>
+  </si>
+  <si>
+    <t>RS3H2SEW / RS4H2SEW</t>
+  </si>
+  <si>
+    <t>RS3H4SJW / RS4H4SJW</t>
+  </si>
+  <si>
+    <t>RS3H7SJW / RS4H7SJW</t>
+  </si>
+  <si>
+    <t>RS5H5SJXW / RS6H5SJXW</t>
+  </si>
+  <si>
+    <t>HYBRID SPORT L</t>
+  </si>
+  <si>
+    <t>RS5H8SJXW / RS6H8SJXW</t>
+  </si>
+  <si>
+    <t>/ RS6H9SKXW</t>
+  </si>
+  <si>
+    <t>RZ1H3SEW / RZ2H3SEW</t>
+  </si>
+  <si>
+    <t>RZ1H5SEW / RZ2H5SEW</t>
+  </si>
+  <si>
+    <t>RZ1H7SJW / RZ2H7SJW</t>
+  </si>
+  <si>
+    <t>RL6H6SJNW</t>
+  </si>
+  <si>
+    <t>SPORT L</t>
+  </si>
+  <si>
+    <t>RL6H7SJNW</t>
+  </si>
+  <si>
+    <t>RL6H8SKNW</t>
+  </si>
+  <si>
+    <t>RL6H9SKNW</t>
+  </si>
+  <si>
+    <t>YF8H5SJNW</t>
+  </si>
+  <si>
+    <t>YF8H6SKNW</t>
+  </si>
+  <si>
+    <t>YF8H8SKNW</t>
+  </si>
+  <si>
+    <t>YG2H3SEW / YG1H3SEW</t>
+  </si>
+  <si>
+    <t>YG2H4SENW / YG1H4SENW</t>
+  </si>
+  <si>
+    <t>/ YG1H6SJW</t>
+  </si>
+  <si>
+    <t>YG2H7SKNW / YG1H7SKNW</t>
+  </si>
+  <si>
+    <t>/ YG1H8SKNW</t>
+  </si>
+  <si>
+    <t>/ YG1H9SKNW</t>
+  </si>
+  <si>
+    <t>YK3F1SEW / YK3F2SEW</t>
+  </si>
+  <si>
+    <t>YK3F5SJNW / YK3F4SJNW</t>
+  </si>
+  <si>
+    <t>AWD TRAILSPORT</t>
+  </si>
+  <si>
+    <t>YK3F6SKNW / YK3F7SKNW</t>
+  </si>
+  <si>
+    <t>YK3F8SKNW</t>
+  </si>
+  <si>
+    <t>CY1F2REW</t>
+  </si>
+  <si>
+    <t>1.5T EX</t>
+  </si>
+  <si>
+    <t>CY1F3RJW</t>
+  </si>
+  <si>
+    <t>CY2F5RJW</t>
+  </si>
+  <si>
+    <t>CY2F6RJNW</t>
+  </si>
+  <si>
+    <t>HYBRID SPORT-L</t>
+  </si>
+  <si>
+    <t>CY2F7RJXW</t>
+  </si>
+  <si>
+    <t>CY2F8RKNW</t>
+  </si>
+  <si>
+    <t>FE2F2REW</t>
+  </si>
+  <si>
+    <t>FE2F5REW</t>
+  </si>
+  <si>
+    <t>FE1F7RJW</t>
+  </si>
+  <si>
+    <t>FE1F9RKNW</t>
+  </si>
+  <si>
+    <t>FE1E5RJXW</t>
+  </si>
+  <si>
+    <t>FL2H5REW</t>
+  </si>
+  <si>
+    <t>FL2G8REW / FL2H8REW</t>
+  </si>
+  <si>
+    <t>FL1H7RJNW</t>
+  </si>
+  <si>
+    <t>FL1G8RKNW / FL1H8RKNW</t>
+  </si>
+  <si>
+    <t>FL5G4RGW</t>
+  </si>
+  <si>
+    <t>RS3H2REW / RS4H2REW</t>
+  </si>
+  <si>
+    <t>RS3H4RJW / RS4H4RJW</t>
+  </si>
+  <si>
+    <t>RS3H7RJW / RS4H7RJW</t>
+  </si>
+  <si>
+    <t>RS5H5RJXW / RS6H5RJXW</t>
+  </si>
+  <si>
+    <t>RS5H8RJXW / RS6H8RJXW</t>
+  </si>
+  <si>
+    <t>/ RS6H9RKXW</t>
+  </si>
+  <si>
     <t>RZ1H3REW / RZ2H3REW</t>
   </si>
   <si>
@@ -100,217 +301,73 @@
     <t>RZ1H7RJW / RZ2H7RJW</t>
   </si>
   <si>
-    <t>CY1F2PEW</t>
-  </si>
-  <si>
-    <t>1.5T EX</t>
-  </si>
-  <si>
-    <t>CY1F3PJW</t>
-  </si>
-  <si>
-    <t>1.5T EX w/o BSI</t>
-  </si>
-  <si>
-    <t>CY1F3PJYW</t>
-  </si>
-  <si>
-    <t>CY2F5PJW</t>
-  </si>
-  <si>
-    <t>HYBRID SPORT w/o BSI</t>
-  </si>
-  <si>
-    <t>CY2F5PJYW</t>
-  </si>
-  <si>
-    <t>CY2F6PJNW</t>
-  </si>
-  <si>
-    <t>HYBRID EX-L w/o BSI</t>
-  </si>
-  <si>
-    <t>CY2F6PJYW</t>
-  </si>
-  <si>
-    <t>HYBRID SPORT-L</t>
-  </si>
-  <si>
-    <t>CY2F7PJXW</t>
-  </si>
-  <si>
-    <t>HYBRID SPORT-L w/o BSI</t>
-  </si>
-  <si>
-    <t>CY2F7PJYW</t>
-  </si>
-  <si>
-    <t>CY2F8PKNW</t>
-  </si>
-  <si>
-    <t>HYBRID TOURING w/o BSI</t>
-  </si>
-  <si>
-    <t>CY2F8PKYW</t>
-  </si>
-  <si>
-    <t>FE2F2PEW</t>
-  </si>
-  <si>
-    <t>FE2F5PEW</t>
-  </si>
-  <si>
-    <t>EX w/o BSI</t>
-  </si>
-  <si>
-    <t>FE1F7PJTW</t>
-  </si>
-  <si>
-    <t>FE1F7PJW</t>
-  </si>
-  <si>
-    <t>FE1F9PKNW</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>FE1E5PJXW</t>
-  </si>
-  <si>
-    <t>FL2H5PEW</t>
-  </si>
-  <si>
-    <t>FL2G8PEW / FL2H8PEW</t>
-  </si>
-  <si>
-    <t>FL1H7PJTW</t>
-  </si>
-  <si>
-    <t>FL1H7PJNW</t>
-  </si>
-  <si>
-    <t>FL1G8PKNW / FL1H8PKNW</t>
-  </si>
-  <si>
-    <t>TYPE R</t>
-  </si>
-  <si>
-    <t>FL5G4PGW</t>
-  </si>
-  <si>
-    <t>RS3H2PEW / RS4H2PEW</t>
-  </si>
-  <si>
-    <t>RS3H4PJW / RS4H4PJW</t>
-  </si>
-  <si>
-    <t>RS3H4PJXW / RS4H4PJXW</t>
-  </si>
-  <si>
-    <t>RS3H7PJW / RS4H7PJW</t>
-  </si>
-  <si>
-    <t>RS3H7PJXW / RS4H7PJXW</t>
-  </si>
-  <si>
-    <t>2WD HYBRID SPORT</t>
-  </si>
-  <si>
-    <t>RS5H5PJW</t>
-  </si>
-  <si>
-    <t>2WD HYBRID SPORT w/o BSI</t>
-  </si>
-  <si>
-    <t>RS5H5PJYW</t>
-  </si>
-  <si>
-    <t>AWD HYBRID SPORT</t>
-  </si>
-  <si>
-    <t>RS6H5PJW</t>
-  </si>
-  <si>
-    <t>AWD HYBRID SPORT w/o BSI</t>
-  </si>
-  <si>
-    <t>RS6H5PJYW</t>
-  </si>
-  <si>
-    <t>AWD HYBRID SPORT TOURING</t>
-  </si>
-  <si>
-    <t>RS6H9PKW</t>
-  </si>
-  <si>
-    <t>RZ1H3PEW / RZ2H3PEW</t>
-  </si>
-  <si>
-    <t>RZ1H5PEW / RZ2H5PEW</t>
-  </si>
-  <si>
-    <t>RZ1H7PJW / RZ2H7PJW</t>
-  </si>
-  <si>
-    <t>RL6H5PEW</t>
-  </si>
-  <si>
-    <t>RL6H6PJNW</t>
-  </si>
-  <si>
-    <t>RL6H7PJNW</t>
-  </si>
-  <si>
-    <t>RL6H8PKNW</t>
-  </si>
-  <si>
-    <t>RL6H9PKNW</t>
-  </si>
-  <si>
-    <t>YF8H5PJNW</t>
-  </si>
-  <si>
-    <t>YF8H6PKNW</t>
-  </si>
-  <si>
-    <t>YF8H0PKNW</t>
-  </si>
-  <si>
-    <t>YG2H2PEW / YG1H2PEW</t>
-  </si>
-  <si>
-    <t>YG2H3PEW / YG1H3PEW</t>
-  </si>
-  <si>
-    <t>YG2H4PENW / YG1H4PENW</t>
+    <t>RL6H5REW</t>
+  </si>
+  <si>
+    <t>RL6H6RJNW</t>
+  </si>
+  <si>
+    <t>RL6H7RJNW</t>
+  </si>
+  <si>
+    <t>RL6H8RKNW</t>
+  </si>
+  <si>
+    <t>RL6H9RKNW</t>
+  </si>
+  <si>
+    <t>YF8H5RJNW</t>
+  </si>
+  <si>
+    <t>YF8H6RKNW</t>
+  </si>
+  <si>
+    <t>YF8H8RKNW</t>
+  </si>
+  <si>
+    <t>YG2H2REW / YG1H2REW</t>
+  </si>
+  <si>
+    <t>YG2H3REW / YG1H3REW</t>
+  </si>
+  <si>
+    <t>YG2H4RENW / YG1H4RENW</t>
   </si>
   <si>
     <t>EX-L 7P</t>
   </si>
   <si>
-    <t>YG2H5PENW / YG1H5PENW</t>
-  </si>
-  <si>
-    <t>/ YG1H6PJW</t>
-  </si>
-  <si>
-    <t>YG2H7PKNW / YG1H7PKNW</t>
-  </si>
-  <si>
-    <t>/ YG1H8PKNW</t>
-  </si>
-  <si>
-    <t>YK3F1PEW</t>
-  </si>
-  <si>
-    <t>YK3F5PJNW</t>
-  </si>
-  <si>
-    <t>YK3F7PKNW</t>
-  </si>
-  <si>
-    <t>YK3F8PKNW</t>
+    <t>YG2H5RENW / YG1H5RENW</t>
+  </si>
+  <si>
+    <t>/ YG1H6RJW</t>
+  </si>
+  <si>
+    <t>YG2H7RKNW / YG1H7RKNW</t>
+  </si>
+  <si>
+    <t>/ YG1H8RKNW</t>
+  </si>
+  <si>
+    <t>3B3H2REXW / 3B4H2REW</t>
+  </si>
+  <si>
+    <t>3B3H6RJXW / 3B4H6RJW</t>
+  </si>
+  <si>
+    <t>/ 3B4H8RJW</t>
+  </si>
+  <si>
+    <t>YK3F1REW / YK3F2REW</t>
+  </si>
+  <si>
+    <t>YK3F5RJNW / YK3F4RJNW</t>
+  </si>
+  <si>
+    <t>YK3F6RKNW</t>
+  </si>
+  <si>
+    <t>YK3F8RKNW</t>
   </si>
 </sst>
 </file>
@@ -856,9 +913,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -896,9 +953,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -931,26 +988,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -983,26 +1023,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1176,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,7 +1259,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1286,13 +1309,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
       </c>
       <c r="D3">
         <v>70</v>
@@ -1336,740 +1359,740 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E4">
+        <v>71</v>
+      </c>
+      <c r="F4">
         <v>69</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>67</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>65</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>63</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>61</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>59</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>57</v>
       </c>
-      <c r="L4">
-        <v>55</v>
-      </c>
       <c r="M4">
+        <v>53</v>
+      </c>
+      <c r="N4">
         <v>51</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>49</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>47</v>
-      </c>
-      <c r="P4">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E5">
+        <v>70</v>
+      </c>
+      <c r="F5">
+        <v>68</v>
+      </c>
+      <c r="G5">
         <v>66</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>64</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>62</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>60</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>58</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>56</v>
       </c>
-      <c r="K5">
-        <v>54</v>
-      </c>
-      <c r="L5">
+      <c r="M5">
         <v>52</v>
       </c>
-      <c r="M5">
+      <c r="N5">
+        <v>50</v>
+      </c>
+      <c r="O5">
         <v>48</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>46</v>
-      </c>
-      <c r="O5">
-        <v>44</v>
-      </c>
-      <c r="P5">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6">
+        <v>72</v>
+      </c>
+      <c r="E6">
+        <v>71</v>
+      </c>
+      <c r="F6">
+        <v>69</v>
+      </c>
+      <c r="G6">
         <v>67</v>
       </c>
-      <c r="E6">
-        <v>66</v>
-      </c>
-      <c r="F6">
-        <v>64</v>
-      </c>
-      <c r="G6">
-        <v>62</v>
-      </c>
       <c r="H6">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I6">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J6">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K6">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="L6">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M6">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N6">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O6">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="P6">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E7">
+        <v>71</v>
+      </c>
+      <c r="F7">
+        <v>69</v>
+      </c>
+      <c r="G7">
+        <v>67</v>
+      </c>
+      <c r="H7">
         <v>65</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>63</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>61</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>59</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>57</v>
       </c>
-      <c r="J7">
-        <v>55</v>
-      </c>
-      <c r="K7">
+      <c r="M7">
         <v>53</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>51</v>
       </c>
-      <c r="M7">
-        <v>45</v>
-      </c>
-      <c r="N7">
-        <v>41</v>
-      </c>
       <c r="O7">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="P7">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
       <c r="D8">
+        <v>71</v>
+      </c>
+      <c r="E8">
+        <v>70</v>
+      </c>
+      <c r="F8">
+        <v>68</v>
+      </c>
+      <c r="G8">
         <v>66</v>
       </c>
-      <c r="E8">
-        <v>65</v>
-      </c>
-      <c r="F8">
-        <v>63</v>
-      </c>
-      <c r="G8">
-        <v>61</v>
-      </c>
       <c r="H8">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I8">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J8">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K8">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L8">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="N8">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="O8">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P8">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
       <c r="D9">
+        <v>73</v>
+      </c>
+      <c r="E9">
+        <v>72</v>
+      </c>
+      <c r="F9">
+        <v>70</v>
+      </c>
+      <c r="G9">
+        <v>68</v>
+      </c>
+      <c r="H9">
         <v>66</v>
       </c>
-      <c r="E9">
-        <v>65</v>
-      </c>
-      <c r="F9">
-        <v>63</v>
-      </c>
-      <c r="G9">
-        <v>61</v>
-      </c>
-      <c r="H9">
-        <v>59</v>
-      </c>
       <c r="I9">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J9">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K9">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L9">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N9">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="O9">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="P9">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E10">
+        <v>71</v>
+      </c>
+      <c r="F10">
+        <v>69</v>
+      </c>
+      <c r="G10">
+        <v>67</v>
+      </c>
+      <c r="H10">
         <v>65</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>63</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>61</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>59</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>57</v>
       </c>
-      <c r="J10">
-        <v>55</v>
-      </c>
-      <c r="K10">
+      <c r="M10">
         <v>53</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>51</v>
       </c>
-      <c r="M10">
-        <v>44</v>
-      </c>
-      <c r="N10">
-        <v>40</v>
-      </c>
       <c r="O10">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="P10">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
       <c r="D11">
+        <v>77</v>
+      </c>
+      <c r="E11">
+        <v>76</v>
+      </c>
+      <c r="F11">
+        <v>74</v>
+      </c>
+      <c r="G11">
+        <v>72</v>
+      </c>
+      <c r="H11">
+        <v>70</v>
+      </c>
+      <c r="I11">
+        <v>68</v>
+      </c>
+      <c r="J11">
         <v>66</v>
       </c>
-      <c r="E11">
-        <v>65</v>
-      </c>
-      <c r="F11">
-        <v>63</v>
-      </c>
-      <c r="G11">
-        <v>61</v>
-      </c>
-      <c r="H11">
-        <v>59</v>
-      </c>
-      <c r="I11">
-        <v>57</v>
-      </c>
-      <c r="J11">
-        <v>55</v>
-      </c>
       <c r="K11">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="M11">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="N11">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="O11">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="P11">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12">
+        <v>68</v>
+      </c>
+      <c r="E12">
+        <v>67</v>
+      </c>
+      <c r="F12">
         <v>65</v>
       </c>
-      <c r="E12">
-        <v>64</v>
-      </c>
-      <c r="F12">
-        <v>62</v>
-      </c>
       <c r="G12">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H12">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I12">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J12">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K12">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L12">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M12">
+        <v>47</v>
+      </c>
+      <c r="N12">
         <v>45</v>
       </c>
-      <c r="N12">
-        <v>41</v>
-      </c>
       <c r="O12">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P12">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E13">
+        <v>68</v>
+      </c>
+      <c r="F13">
+        <v>66</v>
+      </c>
+      <c r="G13">
         <v>64</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>62</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>60</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>58</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>56</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>54</v>
       </c>
-      <c r="K13">
-        <v>52</v>
-      </c>
-      <c r="L13">
-        <v>50</v>
-      </c>
       <c r="M13">
+        <v>49</v>
+      </c>
+      <c r="N13">
+        <v>47</v>
+      </c>
+      <c r="O13">
         <v>45</v>
       </c>
-      <c r="N13">
-        <v>41</v>
-      </c>
-      <c r="O13">
-        <v>38</v>
-      </c>
       <c r="P13">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14">
+        <v>69</v>
+      </c>
+      <c r="E14">
+        <v>68</v>
+      </c>
+      <c r="F14">
         <v>66</v>
       </c>
-      <c r="E14">
-        <v>65</v>
-      </c>
-      <c r="F14">
-        <v>63</v>
-      </c>
       <c r="G14">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H14">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I14">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J14">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K14">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L14">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M14">
+        <v>49</v>
+      </c>
+      <c r="N14">
+        <v>46</v>
+      </c>
+      <c r="O14">
         <v>44</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>41</v>
-      </c>
-      <c r="O14">
-        <v>38</v>
-      </c>
-      <c r="P14">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D15">
+        <v>71</v>
+      </c>
+      <c r="E15">
+        <v>70</v>
+      </c>
+      <c r="F15">
+        <v>68</v>
+      </c>
+      <c r="G15">
         <v>66</v>
       </c>
-      <c r="E15">
-        <v>65</v>
-      </c>
-      <c r="F15">
-        <v>63</v>
-      </c>
-      <c r="G15">
-        <v>61</v>
-      </c>
       <c r="H15">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I15">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J15">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K15">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L15">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="N15">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="O15">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="P15">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D16">
+        <v>71</v>
+      </c>
+      <c r="E16">
+        <v>70</v>
+      </c>
+      <c r="F16">
+        <v>68</v>
+      </c>
+      <c r="G16">
+        <v>66</v>
+      </c>
+      <c r="H16">
         <v>64</v>
       </c>
-      <c r="E16">
-        <v>63</v>
-      </c>
-      <c r="F16">
-        <v>61</v>
-      </c>
-      <c r="G16">
-        <v>59</v>
-      </c>
-      <c r="H16">
-        <v>57</v>
-      </c>
       <c r="I16">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="J16">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K16">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L16">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="N16">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="O16">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="P16">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <v>71</v>
+      </c>
+      <c r="E17">
+        <v>70</v>
+      </c>
+      <c r="F17">
+        <v>68</v>
+      </c>
+      <c r="G17">
+        <v>66</v>
+      </c>
+      <c r="H17">
+        <v>64</v>
+      </c>
+      <c r="I17">
+        <v>62</v>
+      </c>
+      <c r="J17">
+        <v>60</v>
+      </c>
+      <c r="K17">
+        <v>58</v>
+      </c>
+      <c r="L17">
+        <v>56</v>
+      </c>
+      <c r="M17">
+        <v>47</v>
+      </c>
+      <c r="N17">
+        <v>45</v>
+      </c>
+      <c r="O17">
         <v>43</v>
       </c>
-      <c r="D17">
-        <v>64</v>
-      </c>
-      <c r="E17">
-        <v>63</v>
-      </c>
-      <c r="F17">
-        <v>61</v>
-      </c>
-      <c r="G17">
-        <v>59</v>
-      </c>
-      <c r="H17">
-        <v>57</v>
-      </c>
-      <c r="I17">
-        <v>55</v>
-      </c>
-      <c r="J17">
-        <v>53</v>
-      </c>
-      <c r="K17">
-        <v>51</v>
-      </c>
-      <c r="L17">
-        <v>49</v>
-      </c>
-      <c r="M17">
-        <v>42</v>
-      </c>
-      <c r="N17">
-        <v>39</v>
-      </c>
-      <c r="O17">
-        <v>36</v>
-      </c>
       <c r="P17">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D18">
+        <v>69</v>
+      </c>
+      <c r="E18">
         <v>68</v>
       </c>
-      <c r="E18">
-        <v>67</v>
-      </c>
       <c r="F18">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G18">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H18">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I18">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J18">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K18">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L18">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M18">
         <v>49</v>
@@ -2078,98 +2101,98 @@
         <v>47</v>
       </c>
       <c r="O18">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P18">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D19">
+        <v>70</v>
+      </c>
+      <c r="E19">
         <v>69</v>
       </c>
-      <c r="E19">
-        <v>68</v>
-      </c>
       <c r="F19">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G19">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H19">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I19">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J19">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K19">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L19">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N19">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="O19">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="P19">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D20">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H20">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J20">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L20">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M20">
         <v>49</v>
@@ -2178,271 +2201,271 @@
         <v>47</v>
       </c>
       <c r="O20">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P20">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21">
+        <v>67</v>
+      </c>
+      <c r="E21">
+        <v>66</v>
+      </c>
+      <c r="F21">
+        <v>64</v>
+      </c>
+      <c r="G21">
+        <v>62</v>
+      </c>
+      <c r="H21">
+        <v>60</v>
+      </c>
+      <c r="I21">
+        <v>58</v>
+      </c>
+      <c r="J21">
+        <v>56</v>
+      </c>
+      <c r="K21">
+        <v>54</v>
+      </c>
+      <c r="L21">
+        <v>52</v>
+      </c>
+      <c r="M21">
         <v>48</v>
       </c>
-      <c r="D21">
-        <v>68</v>
-      </c>
-      <c r="E21">
-        <v>67</v>
-      </c>
-      <c r="F21">
-        <v>65</v>
-      </c>
-      <c r="G21">
-        <v>63</v>
-      </c>
-      <c r="H21">
-        <v>61</v>
-      </c>
-      <c r="I21">
-        <v>59</v>
-      </c>
-      <c r="J21">
-        <v>57</v>
-      </c>
-      <c r="K21">
-        <v>55</v>
-      </c>
-      <c r="L21">
-        <v>53</v>
-      </c>
-      <c r="M21">
-        <v>45</v>
-      </c>
       <c r="N21">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="O21">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="P21">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D22">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E22">
+        <v>66</v>
+      </c>
+      <c r="F22">
         <v>64</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>62</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>60</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>58</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>56</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>54</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>52</v>
       </c>
-      <c r="L22">
-        <v>50</v>
-      </c>
       <c r="M22">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N22">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="O22">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="P22">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23">
+        <v>65</v>
+      </c>
+      <c r="E23">
+        <v>64</v>
+      </c>
+      <c r="F23">
+        <v>62</v>
+      </c>
+      <c r="G23">
+        <v>60</v>
+      </c>
+      <c r="H23">
+        <v>58</v>
+      </c>
+      <c r="I23">
+        <v>56</v>
+      </c>
+      <c r="J23">
+        <v>54</v>
+      </c>
+      <c r="K23">
+        <v>52</v>
+      </c>
+      <c r="L23">
         <v>50</v>
       </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23">
-        <v>71</v>
-      </c>
-      <c r="E23">
-        <v>70</v>
-      </c>
-      <c r="F23">
-        <v>68</v>
-      </c>
-      <c r="G23">
-        <v>66</v>
-      </c>
-      <c r="H23">
-        <v>64</v>
-      </c>
-      <c r="I23">
-        <v>62</v>
-      </c>
-      <c r="J23">
-        <v>60</v>
-      </c>
-      <c r="K23">
-        <v>58</v>
-      </c>
-      <c r="L23">
-        <v>56</v>
-      </c>
       <c r="M23">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N23">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O23">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P23">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D24">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E24">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F24">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G24">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H24">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I24">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J24">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K24">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L24">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M24">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N24">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O24">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P24">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D25">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F25">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G25">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H25">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I25">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J25">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K25">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L25">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M25">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N25">
+        <v>46</v>
+      </c>
+      <c r="O25">
         <v>44</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>42</v>
-      </c>
-      <c r="P25">
-        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D26">
         <v>67</v>
@@ -2451,78 +2474,78 @@
         <v>66</v>
       </c>
       <c r="F26">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H26">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I26">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J26">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K26">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L26">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M26">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N26">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O26">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P26">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D27">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E27">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F27">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G27">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H27">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I27">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J27">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K27">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L27">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M27">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N27">
         <v>44</v>
@@ -2531,368 +2554,368 @@
         <v>42</v>
       </c>
       <c r="P27">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28">
+        <v>69</v>
+      </c>
+      <c r="E28">
+        <v>68</v>
+      </c>
+      <c r="F28">
+        <v>66</v>
+      </c>
+      <c r="G28">
+        <v>64</v>
+      </c>
+      <c r="H28">
+        <v>62</v>
+      </c>
+      <c r="I28">
+        <v>60</v>
+      </c>
+      <c r="J28">
+        <v>58</v>
+      </c>
+      <c r="K28">
         <v>56</v>
       </c>
-      <c r="D28">
-        <v>65</v>
-      </c>
-      <c r="E28">
-        <v>64</v>
-      </c>
-      <c r="F28">
-        <v>63</v>
-      </c>
-      <c r="G28">
-        <v>61</v>
-      </c>
-      <c r="H28">
-        <v>59</v>
-      </c>
-      <c r="I28">
-        <v>57</v>
-      </c>
-      <c r="J28">
-        <v>55</v>
-      </c>
-      <c r="K28">
-        <v>53</v>
-      </c>
       <c r="L28">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M28">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N28">
         <v>45</v>
       </c>
       <c r="O28">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P28">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29">
+        <v>69</v>
+      </c>
+      <c r="E29">
+        <v>68</v>
+      </c>
+      <c r="F29">
+        <v>66</v>
+      </c>
+      <c r="G29">
+        <v>64</v>
+      </c>
+      <c r="H29">
+        <v>62</v>
+      </c>
+      <c r="I29">
+        <v>60</v>
+      </c>
+      <c r="J29">
         <v>58</v>
       </c>
-      <c r="D29">
-        <v>75</v>
-      </c>
-      <c r="E29">
-        <v>74</v>
-      </c>
-      <c r="F29">
-        <v>73</v>
-      </c>
-      <c r="G29">
-        <v>71</v>
-      </c>
-      <c r="H29">
-        <v>69</v>
-      </c>
-      <c r="I29">
-        <v>67</v>
-      </c>
-      <c r="J29">
-        <v>65</v>
-      </c>
       <c r="K29">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L29">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M29">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N29">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O29">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="P29">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30">
+        <v>70</v>
+      </c>
+      <c r="E30">
+        <v>69</v>
+      </c>
+      <c r="F30">
+        <v>67</v>
+      </c>
+      <c r="G30">
+        <v>65</v>
+      </c>
+      <c r="H30">
+        <v>63</v>
+      </c>
+      <c r="I30">
+        <v>61</v>
+      </c>
+      <c r="J30">
         <v>59</v>
       </c>
-      <c r="D30">
-        <v>67</v>
-      </c>
-      <c r="E30">
-        <v>66</v>
-      </c>
-      <c r="F30">
-        <v>64</v>
-      </c>
-      <c r="G30">
-        <v>62</v>
-      </c>
-      <c r="H30">
-        <v>60</v>
-      </c>
-      <c r="I30">
-        <v>58</v>
-      </c>
-      <c r="J30">
-        <v>56</v>
-      </c>
       <c r="K30">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L30">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M30">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N30">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O30">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P30">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31">
+        <v>67</v>
+      </c>
+      <c r="E31">
+        <v>66</v>
+      </c>
+      <c r="F31">
+        <v>64</v>
+      </c>
+      <c r="G31">
+        <v>62</v>
+      </c>
+      <c r="H31">
         <v>60</v>
       </c>
-      <c r="D31">
-        <v>68</v>
-      </c>
-      <c r="E31">
-        <v>67</v>
-      </c>
-      <c r="F31">
-        <v>65</v>
-      </c>
-      <c r="G31">
-        <v>63</v>
-      </c>
-      <c r="H31">
-        <v>61</v>
-      </c>
       <c r="I31">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J31">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K31">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L31">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M31">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N31">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O31">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P31">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D32">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E32">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F32">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H32">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I32">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J32">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K32">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L32">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M32">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N32">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O32">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P32">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33">
+        <v>67</v>
+      </c>
+      <c r="E33">
+        <v>66</v>
+      </c>
+      <c r="F33">
+        <v>64</v>
+      </c>
+      <c r="G33">
         <v>62</v>
       </c>
-      <c r="D33">
-        <v>68</v>
-      </c>
-      <c r="E33">
-        <v>67</v>
-      </c>
-      <c r="F33">
-        <v>65</v>
-      </c>
-      <c r="G33">
-        <v>63</v>
-      </c>
       <c r="H33">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I33">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J33">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L33">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M33">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N33">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O33">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P33">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34">
+        <v>70</v>
+      </c>
+      <c r="E34">
+        <v>69</v>
+      </c>
+      <c r="F34">
+        <v>67</v>
+      </c>
+      <c r="G34">
+        <v>65</v>
+      </c>
+      <c r="H34">
         <v>63</v>
       </c>
-      <c r="D34">
-        <v>68</v>
-      </c>
-      <c r="E34">
-        <v>67</v>
-      </c>
-      <c r="F34">
-        <v>65</v>
-      </c>
-      <c r="G34">
-        <v>63</v>
-      </c>
-      <c r="H34">
+      <c r="I34">
         <v>61</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>59</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>57</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>55</v>
       </c>
-      <c r="L34">
-        <v>53</v>
-      </c>
       <c r="M34">
+        <v>51</v>
+      </c>
+      <c r="N34">
+        <v>49</v>
+      </c>
+      <c r="O34">
         <v>47</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <v>45</v>
-      </c>
-      <c r="O34">
-        <v>43</v>
-      </c>
-      <c r="P34">
-        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D35">
         <v>70</v>
@@ -2922,77 +2945,77 @@
         <v>55</v>
       </c>
       <c r="M35">
+        <v>51</v>
+      </c>
+      <c r="N35">
         <v>49</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>47</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>45</v>
-      </c>
-      <c r="P35">
-        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36">
+        <v>71</v>
+      </c>
+      <c r="E36">
+        <v>70</v>
+      </c>
+      <c r="F36">
+        <v>68</v>
+      </c>
+      <c r="G36">
         <v>66</v>
       </c>
-      <c r="C36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36">
-        <v>70</v>
-      </c>
-      <c r="E36">
-        <v>69</v>
-      </c>
-      <c r="F36">
-        <v>67</v>
-      </c>
-      <c r="G36">
-        <v>65</v>
-      </c>
       <c r="H36">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I36">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J36">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K36">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L36">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M36">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N36">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O36">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P36">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D37">
         <v>70</v>
@@ -3022,763 +3045,763 @@
         <v>55</v>
       </c>
       <c r="M37">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N37">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O37">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P37">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D38">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E38">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F38">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G38">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H38">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I38">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J38">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L38">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M38">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="N38">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="O38">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="P38">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D39">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E39">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F39">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G39">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H39">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I39">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J39">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L39">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="M39">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N39">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="O39">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="P39">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D40">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E40">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F40">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G40">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H40">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I40">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J40">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K40">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L40">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M40">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="N40">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="O40">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="P40">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D41">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F41">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G41">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H41">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I41">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J41">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K41">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L41">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="M41">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="N41">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="O41">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="P41">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D42">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E42">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F42">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G42">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H42">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I42">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J42">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K42">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L42">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M42">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="N42">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="O42">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="P42">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D43">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E43">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F43">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G43">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H43">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I43">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J43">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K43">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L43">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M43">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N43">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O43">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P43">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D44">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E44">
+        <v>65</v>
+      </c>
+      <c r="F44">
         <v>63</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>61</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>59</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>57</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>55</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>53</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>51</v>
       </c>
-      <c r="L44">
-        <v>49</v>
-      </c>
       <c r="M44">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N44">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="O44">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P44">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D45">
+        <v>67</v>
+      </c>
+      <c r="E45">
+        <v>66</v>
+      </c>
+      <c r="F45">
         <v>64</v>
       </c>
-      <c r="E45">
-        <v>63</v>
-      </c>
-      <c r="F45">
-        <v>61</v>
-      </c>
       <c r="G45">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H45">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I45">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J45">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K45">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L45">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M45">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N45">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O45">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P45">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D46">
+        <v>66</v>
+      </c>
+      <c r="E46">
+        <v>65</v>
+      </c>
+      <c r="F46">
         <v>63</v>
       </c>
-      <c r="E46">
-        <v>62</v>
-      </c>
-      <c r="F46">
-        <v>60</v>
-      </c>
       <c r="G46">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H46">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I46">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J46">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K46">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L46">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M46">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N46">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O46">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P46">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D47">
+        <v>63</v>
+      </c>
+      <c r="E47">
         <v>62</v>
       </c>
-      <c r="E47">
-        <v>61</v>
-      </c>
       <c r="F47">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G47">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H47">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I47">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J47">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K47">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L47">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M47">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N47">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O47">
         <v>38</v>
       </c>
       <c r="P47">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D48">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E48">
+        <v>68</v>
+      </c>
+      <c r="F48">
         <v>66</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>64</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>62</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>60</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>58</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>56</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>54</v>
       </c>
-      <c r="L48">
-        <v>52</v>
-      </c>
       <c r="M48">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N48">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O48">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P48">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D49">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E49">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F49">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G49">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H49">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I49">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J49">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K49">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L49">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M49">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N49">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O49">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="P49">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D50">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E50">
+        <v>66</v>
+      </c>
+      <c r="F50">
+        <v>65</v>
+      </c>
+      <c r="G50">
         <v>63</v>
       </c>
-      <c r="F50">
+      <c r="H50">
         <v>61</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>59</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>57</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>55</v>
       </c>
-      <c r="J50">
+      <c r="L50">
         <v>53</v>
       </c>
-      <c r="K50">
-        <v>51</v>
-      </c>
-      <c r="L50">
-        <v>49</v>
-      </c>
       <c r="M50">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N50">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O50">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P50">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D51">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E51">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F51">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G51">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H51">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I51">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J51">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K51">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L51">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M51">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N51">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="O51">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="P51">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D52">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E52">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F52">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G52">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H52">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I52">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J52">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K52">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L52">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M52">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N52">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O52">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P52">
         <v>39</v>
@@ -3786,146 +3809,146 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D53">
+        <v>73</v>
+      </c>
+      <c r="E53">
+        <v>72</v>
+      </c>
+      <c r="F53">
+        <v>71</v>
+      </c>
+      <c r="G53">
         <v>69</v>
       </c>
-      <c r="E53">
-        <v>68</v>
-      </c>
-      <c r="F53">
-        <v>66</v>
-      </c>
-      <c r="G53">
-        <v>64</v>
-      </c>
       <c r="H53">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I53">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J53">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K53">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L53">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="M53">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N53">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O53">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P53">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D54">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E54">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F54">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G54">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H54">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I54">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J54">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K54">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L54">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M54">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N54">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="O54">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="P54">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D55">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E55">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F55">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G55">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H55">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I55">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J55">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K55">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L55">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M55">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N55">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O55">
         <v>40</v>
@@ -3936,193 +3959,193 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D56">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E56">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G56">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H56">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I56">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J56">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K56">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L56">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M56">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N56">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O56">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P56">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D57">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E57">
+        <v>68</v>
+      </c>
+      <c r="F57">
         <v>66</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>64</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>62</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>60</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>58</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>56</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>54</v>
       </c>
-      <c r="L57">
-        <v>52</v>
-      </c>
       <c r="M57">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N57">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="O57">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="P57">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D58">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E58">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F58">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G58">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H58">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I58">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J58">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K58">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L58">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M58">
+        <v>49</v>
+      </c>
+      <c r="N58">
+        <v>47</v>
+      </c>
+      <c r="O58">
         <v>45</v>
       </c>
-      <c r="N58">
-        <v>42</v>
-      </c>
-      <c r="O58">
-        <v>39</v>
-      </c>
       <c r="P58">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C59" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D59">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E59">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G59">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H59">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I59">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J59">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K59">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L59">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M59">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N59">
         <v>41</v>
@@ -4131,107 +4154,1357 @@
         <v>39</v>
       </c>
       <c r="P59">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D60">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E60">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F60">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G60">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H60">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I60">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J60">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K60">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L60">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M60">
+        <v>44</v>
+      </c>
+      <c r="N60">
         <v>43</v>
       </c>
-      <c r="N60">
+      <c r="O60">
+        <v>42</v>
+      </c>
+      <c r="P60">
         <v>40</v>
-      </c>
-      <c r="O60">
-        <v>38</v>
-      </c>
-      <c r="P60">
-        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61">
+        <v>69</v>
+      </c>
+      <c r="E61">
+        <v>68</v>
+      </c>
+      <c r="F61">
+        <v>66</v>
+      </c>
+      <c r="G61">
+        <v>64</v>
+      </c>
+      <c r="H61">
+        <v>62</v>
+      </c>
+      <c r="I61">
+        <v>60</v>
+      </c>
+      <c r="J61">
+        <v>58</v>
+      </c>
+      <c r="K61">
+        <v>56</v>
+      </c>
+      <c r="L61">
+        <v>54</v>
+      </c>
+      <c r="M61">
+        <v>44</v>
+      </c>
+      <c r="N61">
+        <v>43</v>
+      </c>
+      <c r="O61">
+        <v>42</v>
+      </c>
+      <c r="P61">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2024</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62">
+        <v>69</v>
+      </c>
+      <c r="E62">
+        <v>68</v>
+      </c>
+      <c r="F62">
+        <v>66</v>
+      </c>
+      <c r="G62">
+        <v>64</v>
+      </c>
+      <c r="H62">
+        <v>62</v>
+      </c>
+      <c r="I62">
+        <v>60</v>
+      </c>
+      <c r="J62">
+        <v>58</v>
+      </c>
+      <c r="K62">
+        <v>56</v>
+      </c>
+      <c r="L62">
+        <v>54</v>
+      </c>
+      <c r="M62">
+        <v>44</v>
+      </c>
+      <c r="N62">
+        <v>43</v>
+      </c>
+      <c r="O62">
+        <v>42</v>
+      </c>
+      <c r="P62">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2024</v>
+      </c>
+      <c r="B63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63">
+        <v>66</v>
+      </c>
+      <c r="E63">
+        <v>65</v>
+      </c>
+      <c r="F63">
+        <v>63</v>
+      </c>
+      <c r="G63">
+        <v>61</v>
+      </c>
+      <c r="H63">
+        <v>59</v>
+      </c>
+      <c r="I63">
+        <v>57</v>
+      </c>
+      <c r="J63">
+        <v>55</v>
+      </c>
+      <c r="K63">
+        <v>53</v>
+      </c>
+      <c r="L63">
+        <v>51</v>
+      </c>
+      <c r="M63">
+        <v>45</v>
+      </c>
+      <c r="N63">
+        <v>44</v>
+      </c>
+      <c r="O63">
+        <v>43</v>
+      </c>
+      <c r="P63">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2024</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64">
+        <v>66</v>
+      </c>
+      <c r="E64">
+        <v>65</v>
+      </c>
+      <c r="F64">
+        <v>63</v>
+      </c>
+      <c r="G64">
+        <v>61</v>
+      </c>
+      <c r="H64">
+        <v>59</v>
+      </c>
+      <c r="I64">
+        <v>57</v>
+      </c>
+      <c r="J64">
+        <v>55</v>
+      </c>
+      <c r="K64">
+        <v>53</v>
+      </c>
+      <c r="L64">
+        <v>51</v>
+      </c>
+      <c r="M64">
+        <v>45</v>
+      </c>
+      <c r="N64">
+        <v>44</v>
+      </c>
+      <c r="O64">
+        <v>43</v>
+      </c>
+      <c r="P64">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2024</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65">
+        <v>62</v>
+      </c>
+      <c r="E65">
+        <v>61</v>
+      </c>
+      <c r="F65">
+        <v>59</v>
+      </c>
+      <c r="G65">
+        <v>57</v>
+      </c>
+      <c r="H65">
+        <v>55</v>
+      </c>
+      <c r="I65">
+        <v>53</v>
+      </c>
+      <c r="J65">
+        <v>51</v>
+      </c>
+      <c r="K65">
+        <v>49</v>
+      </c>
+      <c r="L65">
+        <v>47</v>
+      </c>
+      <c r="M65">
+        <v>38</v>
+      </c>
+      <c r="N65">
+        <v>36</v>
+      </c>
+      <c r="O65">
+        <v>34</v>
+      </c>
+      <c r="P65">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2024</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66">
+        <v>63</v>
+      </c>
+      <c r="E66">
+        <v>62</v>
+      </c>
+      <c r="F66">
+        <v>60</v>
+      </c>
+      <c r="G66">
+        <v>58</v>
+      </c>
+      <c r="H66">
+        <v>56</v>
+      </c>
+      <c r="I66">
+        <v>54</v>
+      </c>
+      <c r="J66">
+        <v>52</v>
+      </c>
+      <c r="K66">
+        <v>50</v>
+      </c>
+      <c r="L66">
+        <v>48</v>
+      </c>
+      <c r="M66">
+        <v>38</v>
+      </c>
+      <c r="N66">
+        <v>36</v>
+      </c>
+      <c r="O66">
+        <v>34</v>
+      </c>
+      <c r="P66">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2024</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67">
+        <v>63</v>
+      </c>
+      <c r="E67">
+        <v>62</v>
+      </c>
+      <c r="F67">
+        <v>60</v>
+      </c>
+      <c r="G67">
+        <v>58</v>
+      </c>
+      <c r="H67">
+        <v>56</v>
+      </c>
+      <c r="I67">
+        <v>54</v>
+      </c>
+      <c r="J67">
+        <v>52</v>
+      </c>
+      <c r="K67">
+        <v>50</v>
+      </c>
+      <c r="L67">
+        <v>48</v>
+      </c>
+      <c r="M67">
+        <v>37</v>
+      </c>
+      <c r="N67">
+        <v>35</v>
+      </c>
+      <c r="O67">
+        <v>33</v>
+      </c>
+      <c r="P67">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2024</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68">
+        <v>61</v>
+      </c>
+      <c r="E68">
+        <v>60</v>
+      </c>
+      <c r="F68">
+        <v>58</v>
+      </c>
+      <c r="G68">
+        <v>56</v>
+      </c>
+      <c r="H68">
+        <v>54</v>
+      </c>
+      <c r="I68">
+        <v>52</v>
+      </c>
+      <c r="J68">
+        <v>50</v>
+      </c>
+      <c r="K68">
+        <v>48</v>
+      </c>
+      <c r="L68">
+        <v>46</v>
+      </c>
+      <c r="M68">
+        <v>37</v>
+      </c>
+      <c r="N68">
+        <v>35</v>
+      </c>
+      <c r="O68">
+        <v>33</v>
+      </c>
+      <c r="P68">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2024</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69">
+        <v>61</v>
+      </c>
+      <c r="E69">
+        <v>60</v>
+      </c>
+      <c r="F69">
+        <v>58</v>
+      </c>
+      <c r="G69">
+        <v>56</v>
+      </c>
+      <c r="H69">
+        <v>54</v>
+      </c>
+      <c r="I69">
+        <v>52</v>
+      </c>
+      <c r="J69">
+        <v>50</v>
+      </c>
+      <c r="K69">
+        <v>48</v>
+      </c>
+      <c r="L69">
+        <v>46</v>
+      </c>
+      <c r="M69">
+        <v>36</v>
+      </c>
+      <c r="N69">
+        <v>34</v>
+      </c>
+      <c r="O69">
+        <v>32</v>
+      </c>
+      <c r="P69">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2024</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70">
+        <v>66</v>
+      </c>
+      <c r="E70">
+        <v>65</v>
+      </c>
+      <c r="F70">
+        <v>63</v>
+      </c>
+      <c r="G70">
+        <v>61</v>
+      </c>
+      <c r="H70">
+        <v>59</v>
+      </c>
+      <c r="I70">
+        <v>57</v>
+      </c>
+      <c r="J70">
+        <v>55</v>
+      </c>
+      <c r="K70">
+        <v>53</v>
+      </c>
+      <c r="L70">
+        <v>51</v>
+      </c>
+      <c r="M70">
+        <v>41</v>
+      </c>
+      <c r="N70">
+        <v>38</v>
+      </c>
+      <c r="O70">
+        <v>35</v>
+      </c>
+      <c r="P70">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2024</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71">
+        <v>66</v>
+      </c>
+      <c r="E71">
+        <v>65</v>
+      </c>
+      <c r="F71">
+        <v>63</v>
+      </c>
+      <c r="G71">
+        <v>61</v>
+      </c>
+      <c r="H71">
+        <v>59</v>
+      </c>
+      <c r="I71">
+        <v>57</v>
+      </c>
+      <c r="J71">
+        <v>55</v>
+      </c>
+      <c r="K71">
+        <v>53</v>
+      </c>
+      <c r="L71">
+        <v>51</v>
+      </c>
+      <c r="M71">
+        <v>40</v>
+      </c>
+      <c r="N71">
+        <v>37</v>
+      </c>
+      <c r="O71">
+        <v>35</v>
+      </c>
+      <c r="P71">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2024</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72">
+        <v>64</v>
+      </c>
+      <c r="E72">
+        <v>63</v>
+      </c>
+      <c r="F72">
+        <v>61</v>
+      </c>
+      <c r="G72">
+        <v>59</v>
+      </c>
+      <c r="H72">
+        <v>57</v>
+      </c>
+      <c r="I72">
+        <v>55</v>
+      </c>
+      <c r="J72">
+        <v>53</v>
+      </c>
+      <c r="K72">
+        <v>51</v>
+      </c>
+      <c r="L72">
+        <v>49</v>
+      </c>
+      <c r="M72">
+        <v>39</v>
+      </c>
+      <c r="N72">
+        <v>36</v>
+      </c>
+      <c r="O72">
+        <v>33</v>
+      </c>
+      <c r="P72">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2024</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73">
+        <v>67</v>
+      </c>
+      <c r="E73">
+        <v>66</v>
+      </c>
+      <c r="F73">
+        <v>64</v>
+      </c>
+      <c r="G73">
+        <v>62</v>
+      </c>
+      <c r="H73">
+        <v>60</v>
+      </c>
+      <c r="I73">
+        <v>58</v>
+      </c>
+      <c r="J73">
+        <v>56</v>
+      </c>
+      <c r="K73">
+        <v>54</v>
+      </c>
+      <c r="L73">
+        <v>52</v>
+      </c>
+      <c r="M73">
+        <v>43</v>
+      </c>
+      <c r="N73">
+        <v>39</v>
+      </c>
+      <c r="O73">
+        <v>36</v>
+      </c>
+      <c r="P73">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2024</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74">
+        <v>67</v>
+      </c>
+      <c r="E74">
+        <v>66</v>
+      </c>
+      <c r="F74">
+        <v>64</v>
+      </c>
+      <c r="G74">
+        <v>62</v>
+      </c>
+      <c r="H74">
+        <v>60</v>
+      </c>
+      <c r="I74">
+        <v>58</v>
+      </c>
+      <c r="J74">
+        <v>56</v>
+      </c>
+      <c r="K74">
+        <v>54</v>
+      </c>
+      <c r="L74">
+        <v>52</v>
+      </c>
+      <c r="M74">
+        <v>43</v>
+      </c>
+      <c r="N74">
+        <v>40</v>
+      </c>
+      <c r="O74">
+        <v>37</v>
+      </c>
+      <c r="P74">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2024</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75">
+        <v>68</v>
+      </c>
+      <c r="E75">
+        <v>67</v>
+      </c>
+      <c r="F75">
+        <v>65</v>
+      </c>
+      <c r="G75">
+        <v>63</v>
+      </c>
+      <c r="H75">
+        <v>61</v>
+      </c>
+      <c r="I75">
+        <v>59</v>
+      </c>
+      <c r="J75">
+        <v>57</v>
+      </c>
+      <c r="K75">
+        <v>55</v>
+      </c>
+      <c r="L75">
+        <v>53</v>
+      </c>
+      <c r="M75">
+        <v>43</v>
+      </c>
+      <c r="N75">
+        <v>40</v>
+      </c>
+      <c r="O75">
+        <v>37</v>
+      </c>
+      <c r="P75">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2024</v>
+      </c>
+      <c r="B76" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" t="s">
+        <v>105</v>
+      </c>
+      <c r="D76">
+        <v>68</v>
+      </c>
+      <c r="E76">
+        <v>67</v>
+      </c>
+      <c r="F76">
+        <v>65</v>
+      </c>
+      <c r="G76">
+        <v>63</v>
+      </c>
+      <c r="H76">
+        <v>61</v>
+      </c>
+      <c r="I76">
+        <v>59</v>
+      </c>
+      <c r="J76">
+        <v>57</v>
+      </c>
+      <c r="K76">
+        <v>55</v>
+      </c>
+      <c r="L76">
+        <v>53</v>
+      </c>
+      <c r="M76">
+        <v>43</v>
+      </c>
+      <c r="N76">
+        <v>40</v>
+      </c>
+      <c r="O76">
+        <v>37</v>
+      </c>
+      <c r="P76">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2024</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77">
+        <v>69</v>
+      </c>
+      <c r="E77">
+        <v>68</v>
+      </c>
+      <c r="F77">
+        <v>66</v>
+      </c>
+      <c r="G77">
+        <v>64</v>
+      </c>
+      <c r="H77">
+        <v>62</v>
+      </c>
+      <c r="I77">
+        <v>60</v>
+      </c>
+      <c r="J77">
+        <v>58</v>
+      </c>
+      <c r="K77">
+        <v>56</v>
+      </c>
+      <c r="L77">
+        <v>54</v>
+      </c>
+      <c r="M77">
+        <v>41</v>
+      </c>
+      <c r="N77">
+        <v>38</v>
+      </c>
+      <c r="O77">
+        <v>35</v>
+      </c>
+      <c r="P77">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2024</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>107</v>
+      </c>
+      <c r="D78">
+        <v>67</v>
+      </c>
+      <c r="E78">
+        <v>66</v>
+      </c>
+      <c r="F78">
+        <v>64</v>
+      </c>
+      <c r="G78">
+        <v>62</v>
+      </c>
+      <c r="H78">
+        <v>60</v>
+      </c>
+      <c r="I78">
+        <v>58</v>
+      </c>
+      <c r="J78">
+        <v>56</v>
+      </c>
+      <c r="K78">
+        <v>54</v>
+      </c>
+      <c r="L78">
+        <v>52</v>
+      </c>
+      <c r="M78">
+        <v>42</v>
+      </c>
+      <c r="N78">
+        <v>39</v>
+      </c>
+      <c r="O78">
+        <v>36</v>
+      </c>
+      <c r="P78">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2024</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" t="s">
+        <v>108</v>
+      </c>
+      <c r="D79">
+        <v>66</v>
+      </c>
+      <c r="E79">
+        <v>65</v>
+      </c>
+      <c r="F79">
+        <v>63</v>
+      </c>
+      <c r="G79">
+        <v>61</v>
+      </c>
+      <c r="H79">
+        <v>59</v>
+      </c>
+      <c r="I79">
+        <v>57</v>
+      </c>
+      <c r="J79">
+        <v>55</v>
+      </c>
+      <c r="K79">
+        <v>53</v>
+      </c>
+      <c r="L79">
+        <v>51</v>
+      </c>
+      <c r="M79">
+        <v>40</v>
+      </c>
+      <c r="N79">
+        <v>37</v>
+      </c>
+      <c r="O79">
+        <v>34</v>
+      </c>
+      <c r="P79">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2024</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>109</v>
+      </c>
+      <c r="D80">
+        <v>55</v>
+      </c>
+      <c r="E80">
+        <v>54</v>
+      </c>
+      <c r="F80">
+        <v>52</v>
+      </c>
+      <c r="G80">
+        <v>50</v>
+      </c>
+      <c r="H80">
+        <v>48</v>
+      </c>
+      <c r="I80">
+        <v>46</v>
+      </c>
+      <c r="J80">
+        <v>43</v>
+      </c>
+      <c r="K80">
+        <v>41</v>
+      </c>
+      <c r="L80">
+        <v>38</v>
+      </c>
+      <c r="M80">
+        <v>34</v>
+      </c>
+      <c r="N80">
+        <v>32</v>
+      </c>
+      <c r="O80">
+        <v>30</v>
+      </c>
+      <c r="P80">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2024</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81">
+        <v>55</v>
+      </c>
+      <c r="E81">
+        <v>54</v>
+      </c>
+      <c r="F81">
+        <v>52</v>
+      </c>
+      <c r="G81">
+        <v>50</v>
+      </c>
+      <c r="H81">
+        <v>48</v>
+      </c>
+      <c r="I81">
+        <v>46</v>
+      </c>
+      <c r="J81">
+        <v>43</v>
+      </c>
+      <c r="K81">
+        <v>41</v>
+      </c>
+      <c r="L81">
+        <v>38</v>
+      </c>
+      <c r="M81">
+        <v>35</v>
+      </c>
+      <c r="N81">
+        <v>33</v>
+      </c>
+      <c r="O81">
+        <v>31</v>
+      </c>
+      <c r="P81">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2024</v>
+      </c>
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" t="s">
+        <v>111</v>
+      </c>
+      <c r="D82">
+        <v>54</v>
+      </c>
+      <c r="E82">
+        <v>53</v>
+      </c>
+      <c r="F82">
+        <v>51</v>
+      </c>
+      <c r="G82">
+        <v>49</v>
+      </c>
+      <c r="H82">
+        <v>47</v>
+      </c>
+      <c r="I82">
+        <v>45</v>
+      </c>
+      <c r="J82">
+        <v>42</v>
+      </c>
+      <c r="K82">
+        <v>40</v>
+      </c>
+      <c r="L82">
+        <v>37</v>
+      </c>
+      <c r="M82">
+        <v>34</v>
+      </c>
+      <c r="N82">
+        <v>32</v>
+      </c>
+      <c r="O82">
+        <v>30</v>
+      </c>
+      <c r="P82">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2024</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" t="s">
+        <v>112</v>
+      </c>
+      <c r="D83">
+        <v>68</v>
+      </c>
+      <c r="E83">
+        <v>67</v>
+      </c>
+      <c r="F83">
+        <v>65</v>
+      </c>
+      <c r="G83">
+        <v>63</v>
+      </c>
+      <c r="H83">
+        <v>61</v>
+      </c>
+      <c r="I83">
+        <v>59</v>
+      </c>
+      <c r="J83">
+        <v>57</v>
+      </c>
+      <c r="K83">
+        <v>55</v>
+      </c>
+      <c r="L83">
+        <v>53</v>
+      </c>
+      <c r="M83">
+        <v>40</v>
+      </c>
+      <c r="N83">
+        <v>37</v>
+      </c>
+      <c r="O83">
+        <v>34</v>
+      </c>
+      <c r="P83">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2024</v>
+      </c>
+      <c r="B84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84">
+        <v>68</v>
+      </c>
+      <c r="E84">
+        <v>67</v>
+      </c>
+      <c r="F84">
+        <v>65</v>
+      </c>
+      <c r="G84">
+        <v>63</v>
+      </c>
+      <c r="H84">
+        <v>61</v>
+      </c>
+      <c r="I84">
+        <v>59</v>
+      </c>
+      <c r="J84">
+        <v>57</v>
+      </c>
+      <c r="K84">
+        <v>55</v>
+      </c>
+      <c r="L84">
+        <v>53</v>
+      </c>
+      <c r="M84">
+        <v>40</v>
+      </c>
+      <c r="N84">
+        <v>37</v>
+      </c>
+      <c r="O84">
+        <v>34</v>
+      </c>
+      <c r="P84">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2024</v>
+      </c>
+      <c r="B85" t="s">
+        <v>59</v>
+      </c>
+      <c r="C85" t="s">
+        <v>114</v>
+      </c>
+      <c r="D85">
+        <v>69</v>
+      </c>
+      <c r="E85">
+        <v>68</v>
+      </c>
+      <c r="F85">
+        <v>66</v>
+      </c>
+      <c r="G85">
+        <v>64</v>
+      </c>
+      <c r="H85">
+        <v>62</v>
+      </c>
+      <c r="I85">
+        <v>60</v>
+      </c>
+      <c r="J85">
+        <v>58</v>
+      </c>
+      <c r="K85">
+        <v>56</v>
+      </c>
+      <c r="L85">
+        <v>54</v>
+      </c>
+      <c r="M85">
+        <v>40</v>
+      </c>
+      <c r="N85">
+        <v>37</v>
+      </c>
+      <c r="O85">
+        <v>34</v>
+      </c>
+      <c r="P85">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2024</v>
+      </c>
+      <c r="B86" t="s">
         <v>18</v>
       </c>
-      <c r="C61" t="s">
-        <v>96</v>
-      </c>
-      <c r="D61">
-        <v>71</v>
-      </c>
-      <c r="E61">
-        <v>70</v>
-      </c>
-      <c r="F61">
+      <c r="C86" t="s">
+        <v>115</v>
+      </c>
+      <c r="D86">
         <v>68</v>
       </c>
-      <c r="G61">
-        <v>66</v>
-      </c>
-      <c r="H61">
-        <v>64</v>
-      </c>
-      <c r="I61">
-        <v>62</v>
-      </c>
-      <c r="J61">
-        <v>60</v>
-      </c>
-      <c r="K61">
-        <v>58</v>
-      </c>
-      <c r="L61">
-        <v>56</v>
-      </c>
-      <c r="M61">
-        <v>42</v>
-      </c>
-      <c r="N61">
-        <v>40</v>
-      </c>
-      <c r="O61">
+      <c r="E86">
+        <v>67</v>
+      </c>
+      <c r="F86">
+        <v>65</v>
+      </c>
+      <c r="G86">
+        <v>63</v>
+      </c>
+      <c r="H86">
+        <v>61</v>
+      </c>
+      <c r="I86">
+        <v>59</v>
+      </c>
+      <c r="J86">
+        <v>57</v>
+      </c>
+      <c r="K86">
+        <v>55</v>
+      </c>
+      <c r="L86">
+        <v>53</v>
+      </c>
+      <c r="M86">
+        <v>41</v>
+      </c>
+      <c r="N86">
         <v>38</v>
       </c>
-      <c r="P61">
+      <c r="O86">
         <v>35</v>
+      </c>
+      <c r="P86">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
